--- a/Data/PowerCurves.xlsx
+++ b/Data/PowerCurves.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JLanini\Documents\GitHub\Ruedi-RW\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB62CA2-C770-403A-89D2-441BED69F758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EEA4006-8086-4D40-8DC4-51F470F241AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{906DF558-2F41-41BB-9CB2-56A07DA2C274}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{906DF558-2F41-41BB-9CB2-56A07DA2C274}"/>
   </bookViews>
   <sheets>
     <sheet name="Power Curves" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,6 @@
     <sheet name="Auxilliary Spillway Gates Dis" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3886,13 +3885,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1552FF8-BBAC-4078-8E1C-963DE1A9DE15}">
   <dimension ref="A1:F107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+    <sheetView topLeftCell="A70" workbookViewId="0">
       <selection activeCell="A106" sqref="A106:C107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -3912,7 +3911,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>220</v>
       </c>
@@ -3932,7 +3931,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>220</v>
       </c>
@@ -3952,7 +3951,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>220</v>
       </c>
@@ -3972,7 +3971,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>220</v>
       </c>
@@ -3992,7 +3991,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>220</v>
       </c>
@@ -4012,7 +4011,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>220</v>
       </c>
@@ -4032,7 +4031,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>220</v>
       </c>
@@ -4052,7 +4051,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>220</v>
       </c>
@@ -4072,7 +4071,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>220</v>
       </c>
@@ -4092,7 +4091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>220</v>
       </c>
@@ -4112,7 +4111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>220</v>
       </c>
@@ -4123,7 +4122,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>230</v>
       </c>
@@ -4134,7 +4133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>230</v>
       </c>
@@ -4145,7 +4144,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>230</v>
       </c>
@@ -4156,7 +4155,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>230</v>
       </c>
@@ -4167,7 +4166,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>230</v>
       </c>
@@ -4178,7 +4177,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>230</v>
       </c>
@@ -4189,7 +4188,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>230</v>
       </c>
@@ -4200,7 +4199,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>230</v>
       </c>
@@ -4211,7 +4210,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>230</v>
       </c>
@@ -4222,7 +4221,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>230</v>
       </c>
@@ -4233,7 +4232,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>230</v>
       </c>
@@ -4244,7 +4243,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>240</v>
       </c>
@@ -4255,7 +4254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>240</v>
       </c>
@@ -4266,7 +4265,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>240</v>
       </c>
@@ -4277,7 +4276,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>240</v>
       </c>
@@ -4288,7 +4287,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>240</v>
       </c>
@@ -4299,7 +4298,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>240</v>
       </c>
@@ -4310,7 +4309,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>240</v>
       </c>
@@ -4321,7 +4320,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>240</v>
       </c>
@@ -4332,7 +4331,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>240</v>
       </c>
@@ -4343,7 +4342,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>240</v>
       </c>
@@ -4354,7 +4353,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>240</v>
       </c>
@@ -4365,7 +4364,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>250</v>
       </c>
@@ -4376,7 +4375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>250</v>
       </c>
@@ -4387,7 +4386,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>250</v>
       </c>
@@ -4398,7 +4397,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>250</v>
       </c>
@@ -4409,7 +4408,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>250</v>
       </c>
@@ -4420,7 +4419,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>250</v>
       </c>
@@ -4431,7 +4430,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>250</v>
       </c>
@@ -4442,7 +4441,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>250</v>
       </c>
@@ -4453,7 +4452,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>250</v>
       </c>
@@ -4464,7 +4463,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>250</v>
       </c>
@@ -4475,7 +4474,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>250</v>
       </c>
@@ -4486,7 +4485,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>250</v>
       </c>
@@ -4497,7 +4496,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>250</v>
       </c>
@@ -4508,7 +4507,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>260</v>
       </c>
@@ -4519,7 +4518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>260</v>
       </c>
@@ -4530,7 +4529,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>260</v>
       </c>
@@ -4541,7 +4540,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>260</v>
       </c>
@@ -4552,7 +4551,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>260</v>
       </c>
@@ -4563,7 +4562,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>260</v>
       </c>
@@ -4574,7 +4573,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>260</v>
       </c>
@@ -4585,7 +4584,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>260</v>
       </c>
@@ -4596,7 +4595,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>260</v>
       </c>
@@ -4607,7 +4606,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>260</v>
       </c>
@@ -4618,7 +4617,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>260</v>
       </c>
@@ -4629,7 +4628,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>260</v>
       </c>
@@ -4640,7 +4639,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>260</v>
       </c>
@@ -4651,7 +4650,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>260</v>
       </c>
@@ -4662,7 +4661,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>270</v>
       </c>
@@ -4673,7 +4672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>270</v>
       </c>
@@ -4684,7 +4683,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>270</v>
       </c>
@@ -4695,7 +4694,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>270</v>
       </c>
@@ -4706,7 +4705,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>270</v>
       </c>
@@ -4717,7 +4716,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>270</v>
       </c>
@@ -4728,7 +4727,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>270</v>
       </c>
@@ -4739,7 +4738,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>270</v>
       </c>
@@ -4750,7 +4749,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>270</v>
       </c>
@@ -4761,7 +4760,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>270</v>
       </c>
@@ -4772,7 +4771,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>270</v>
       </c>
@@ -4783,7 +4782,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>270</v>
       </c>
@@ -4794,7 +4793,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>270</v>
       </c>
@@ -4805,7 +4804,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>270</v>
       </c>
@@ -4816,7 +4815,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>280</v>
       </c>
@@ -4827,7 +4826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>280</v>
       </c>
@@ -4838,7 +4837,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>280</v>
       </c>
@@ -4849,7 +4848,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>280</v>
       </c>
@@ -4860,7 +4859,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>280</v>
       </c>
@@ -4871,7 +4870,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>280</v>
       </c>
@@ -4882,7 +4881,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>280</v>
       </c>
@@ -4893,7 +4892,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>280</v>
       </c>
@@ -4904,7 +4903,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>280</v>
       </c>
@@ -4915,7 +4914,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>280</v>
       </c>
@@ -4926,7 +4925,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>280</v>
       </c>
@@ -4937,7 +4936,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>280</v>
       </c>
@@ -4948,7 +4947,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>280</v>
       </c>
@@ -4959,7 +4958,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>280</v>
       </c>
@@ -4970,7 +4969,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>280</v>
       </c>
@@ -4981,7 +4980,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>290</v>
       </c>
@@ -4992,7 +4991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>290</v>
       </c>
@@ -5003,7 +5002,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>290</v>
       </c>
@@ -5014,7 +5013,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>290</v>
       </c>
@@ -5025,7 +5024,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>290</v>
       </c>
@@ -5036,7 +5035,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>290</v>
       </c>
@@ -5047,7 +5046,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>290</v>
       </c>
@@ -5058,7 +5057,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>290</v>
       </c>
@@ -5069,7 +5068,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>290</v>
       </c>
@@ -5080,7 +5079,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>290</v>
       </c>
@@ -5091,7 +5090,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>290</v>
       </c>
@@ -5102,7 +5101,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>290</v>
       </c>
@@ -5113,7 +5112,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>290</v>
       </c>
@@ -5124,7 +5123,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>290</v>
       </c>
@@ -5135,7 +5134,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>290</v>
       </c>
@@ -5146,7 +5145,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>290.01</v>
       </c>
@@ -5157,7 +5156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>350</v>
       </c>
@@ -5182,19 +5181,19 @@
       <selection activeCell="I4" sqref="I4:J82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="8.88671875" style="1"/>
+    <col min="1" max="3" width="8.85546875" style="1"/>
     <col min="4" max="4" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="8.88671875" style="1"/>
-    <col min="10" max="10" width="12.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="8.85546875" style="1"/>
+    <col min="10" max="10" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="8.85546875" style="1"/>
     <col min="15" max="15" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="1"/>
+    <col min="16" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -5202,7 +5201,7 @@
         <v>7473.25</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -5225,7 +5224,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -5242,7 +5241,7 @@
         <v>0.92</v>
       </c>
       <c r="F3" s="2">
-        <f>$B$1+E3</f>
+        <f t="shared" ref="F3:F66" si="0">$B$1+E3</f>
         <v>7474.17</v>
       </c>
       <c r="G3" s="1">
@@ -5266,7 +5265,7 @@
       </c>
       <c r="O3" s="5"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -5283,7 +5282,7 @@
         <v>0.97</v>
       </c>
       <c r="F4" s="2">
-        <f>$B$1+E4</f>
+        <f t="shared" si="0"/>
         <v>7474.22</v>
       </c>
       <c r="G4" s="1">
@@ -5296,7 +5295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -5313,7 +5312,7 @@
         <v>0.97</v>
       </c>
       <c r="F5" s="2">
-        <f>$B$1+E5</f>
+        <f t="shared" si="0"/>
         <v>7474.22</v>
       </c>
       <c r="G5" s="1">
@@ -5323,11 +5322,11 @@
         <v>7474.1</v>
       </c>
       <c r="J5" s="1">
-        <f>$L$3*I5^2+$M$3*I5+$N$3</f>
+        <f t="shared" ref="J5:J36" si="1">$L$3*I5^2+$M$3*I5+$N$3</f>
         <v>47.382827758789063</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -5344,7 +5343,7 @@
         <v>0.97</v>
       </c>
       <c r="F6" s="2">
-        <f>$B$1+E6</f>
+        <f t="shared" si="0"/>
         <v>7474.22</v>
       </c>
       <c r="G6" s="1">
@@ -5354,11 +5353,11 @@
         <v>7474.2</v>
       </c>
       <c r="J6" s="1">
-        <f>$L$3*I6^2+$M$3*I6+$N$3</f>
+        <f t="shared" si="1"/>
         <v>48.104484558105469</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -5375,7 +5374,7 @@
         <v>0.97</v>
       </c>
       <c r="F7" s="2">
-        <f>$B$1+E7</f>
+        <f t="shared" si="0"/>
         <v>7474.22</v>
       </c>
       <c r="G7" s="1">
@@ -5385,11 +5384,11 @@
         <v>7474.3</v>
       </c>
       <c r="J7" s="1">
-        <f>$L$3*I7^2+$M$3*I7+$N$3</f>
+        <f t="shared" si="1"/>
         <v>51.849903106689453</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -5406,7 +5405,7 @@
         <v>0.98</v>
       </c>
       <c r="F8" s="2">
-        <f>$B$1+E8</f>
+        <f t="shared" si="0"/>
         <v>7474.23</v>
       </c>
       <c r="G8" s="1">
@@ -5416,11 +5415,11 @@
         <v>7474.4</v>
       </c>
       <c r="J8" s="1">
-        <f>$L$3*I8^2+$M$3*I8+$N$3</f>
+        <f t="shared" si="1"/>
         <v>58.619088172912598</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -5437,7 +5436,7 @@
         <v>0.98</v>
       </c>
       <c r="F9" s="2">
-        <f>$B$1+E9</f>
+        <f t="shared" si="0"/>
         <v>7474.23</v>
       </c>
       <c r="G9" s="1">
@@ -5447,11 +5446,11 @@
         <v>7474.5</v>
       </c>
       <c r="J9" s="1">
-        <f>$L$3*I9^2+$M$3*I9+$N$3</f>
+        <f t="shared" si="1"/>
         <v>68.412040710449219</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -5468,7 +5467,7 @@
         <v>0.99</v>
       </c>
       <c r="F10" s="2">
-        <f>$B$1+E10</f>
+        <f t="shared" si="0"/>
         <v>7474.24</v>
       </c>
       <c r="G10" s="1">
@@ -5478,11 +5477,11 @@
         <v>7474.6</v>
       </c>
       <c r="J10" s="1">
-        <f>$L$3*I10^2+$M$3*I10+$N$3</f>
+        <f t="shared" si="1"/>
         <v>81.228754997253418</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -5499,7 +5498,7 @@
         <v>0.99</v>
       </c>
       <c r="F11" s="2">
-        <f>$B$1+E11</f>
+        <f t="shared" si="0"/>
         <v>7474.24</v>
       </c>
       <c r="G11" s="1">
@@ -5509,11 +5508,11 @@
         <v>7474.7</v>
       </c>
       <c r="J11" s="1">
-        <f>$L$3*I11^2+$M$3*I11+$N$3</f>
+        <f t="shared" si="1"/>
         <v>97.069236755371094</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -5530,7 +5529,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="2">
-        <f>$B$1+E12</f>
+        <f t="shared" si="0"/>
         <v>7474.25</v>
       </c>
       <c r="G12" s="1">
@@ -5540,11 +5539,11 @@
         <v>7474.8</v>
       </c>
       <c r="J12" s="1">
-        <f>$L$3*I12^2+$M$3*I12+$N$3</f>
+        <f t="shared" si="1"/>
         <v>115.93348121643066</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -5561,7 +5560,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="2">
-        <f>$B$1+E13</f>
+        <f t="shared" si="0"/>
         <v>7474.25</v>
       </c>
       <c r="G13" s="1">
@@ -5571,11 +5570,11 @@
         <v>7474.9</v>
       </c>
       <c r="J13" s="1">
-        <f>$L$3*I13^2+$M$3*I13+$N$3</f>
+        <f t="shared" si="1"/>
         <v>137.82149410247803</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -5592,7 +5591,7 @@
         <v>1.01</v>
       </c>
       <c r="F14" s="2">
-        <f>$B$1+E14</f>
+        <f t="shared" si="0"/>
         <v>7474.26</v>
       </c>
       <c r="G14" s="1">
@@ -5602,11 +5601,11 @@
         <v>7475</v>
       </c>
       <c r="J14" s="1">
-        <f>$L$3*I14^2+$M$3*I14+$N$3</f>
+        <f t="shared" si="1"/>
         <v>162.73326873779297</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -5623,7 +5622,7 @@
         <v>1.03</v>
       </c>
       <c r="F15" s="2">
-        <f>$B$1+E15</f>
+        <f t="shared" si="0"/>
         <v>7474.28</v>
       </c>
       <c r="G15" s="1">
@@ -5633,11 +5632,11 @@
         <v>7475.1</v>
       </c>
       <c r="J15" s="1">
-        <f>$L$3*I15^2+$M$3*I15+$N$3</f>
+        <f t="shared" si="1"/>
         <v>190.66881084442139</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -5654,7 +5653,7 @@
         <v>1.03</v>
       </c>
       <c r="F16" s="2">
-        <f>$B$1+E16</f>
+        <f t="shared" si="0"/>
         <v>7474.28</v>
       </c>
       <c r="G16" s="1">
@@ -5664,11 +5663,11 @@
         <v>7475.2</v>
       </c>
       <c r="J16" s="1">
-        <f>$L$3*I16^2+$M$3*I16+$N$3</f>
+        <f t="shared" si="1"/>
         <v>221.62811660766602</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -5685,7 +5684,7 @@
         <v>1.04</v>
       </c>
       <c r="F17" s="2">
-        <f>$B$1+E17</f>
+        <f t="shared" si="0"/>
         <v>7474.29</v>
       </c>
       <c r="G17" s="1">
@@ -5695,11 +5694,11 @@
         <v>7475.3</v>
       </c>
       <c r="J17" s="1">
-        <f>$L$3*I17^2+$M$3*I17+$N$3</f>
+        <f t="shared" si="1"/>
         <v>255.6111888885498</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -5716,7 +5715,7 @@
         <v>1.05</v>
       </c>
       <c r="F18" s="2">
-        <f>$B$1+E18</f>
+        <f t="shared" si="0"/>
         <v>7474.3</v>
       </c>
       <c r="G18" s="1">
@@ -5726,11 +5725,11 @@
         <v>7475.4000000000096</v>
       </c>
       <c r="J18" s="1">
-        <f>$L$3*I18^2+$M$3*I18+$N$3</f>
+        <f t="shared" si="1"/>
         <v>292.61802673339844</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -5747,7 +5746,7 @@
         <v>1.06</v>
       </c>
       <c r="F19" s="2">
-        <f>$B$1+E19</f>
+        <f t="shared" si="0"/>
         <v>7474.31</v>
       </c>
       <c r="G19" s="1">
@@ -5757,11 +5756,11 @@
         <v>7475.50000000001</v>
       </c>
       <c r="J19" s="1">
-        <f>$L$3*I19^2+$M$3*I19+$N$3</f>
+        <f t="shared" si="1"/>
         <v>332.64862728118896</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
@@ -5778,7 +5777,7 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="F20" s="2">
-        <f>$B$1+E20</f>
+        <f t="shared" si="0"/>
         <v>7474.34</v>
       </c>
       <c r="G20" s="1">
@@ -5788,11 +5787,11 @@
         <v>7475.6000000000104</v>
       </c>
       <c r="J20" s="1">
-        <f>$L$3*I20^2+$M$3*I20+$N$3</f>
+        <f t="shared" si="1"/>
         <v>375.70299530029297</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -5809,7 +5808,7 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="F21" s="2">
-        <f>$B$1+E21</f>
+        <f t="shared" si="0"/>
         <v>7474.34</v>
       </c>
       <c r="G21" s="1">
@@ -5819,11 +5818,11 @@
         <v>7475.7000000000098</v>
       </c>
       <c r="J21" s="1">
-        <f>$L$3*I21^2+$M$3*I21+$N$3</f>
+        <f t="shared" si="1"/>
         <v>421.78112602233887</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -5840,7 +5839,7 @@
         <v>1.1399999999999999</v>
       </c>
       <c r="F22" s="2">
-        <f>$B$1+E22</f>
+        <f t="shared" si="0"/>
         <v>7474.39</v>
       </c>
       <c r="G22" s="1">
@@ -5850,11 +5849,11 @@
         <v>7475.8000000000102</v>
       </c>
       <c r="J22" s="1">
-        <f>$L$3*I22^2+$M$3*I22+$N$3</f>
+        <f t="shared" si="1"/>
         <v>470.88302421569824</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -5871,7 +5870,7 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="F23" s="2">
-        <f>$B$1+E23</f>
+        <f t="shared" si="0"/>
         <v>7474.4</v>
       </c>
       <c r="G23" s="1">
@@ -5881,11 +5880,11 @@
         <v>7475.9000000000096</v>
       </c>
       <c r="J23" s="1">
-        <f>$L$3*I23^2+$M$3*I23+$N$3</f>
+        <f t="shared" si="1"/>
         <v>523.00868606567383</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -5902,7 +5901,7 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="F24" s="2">
-        <f>$B$1+E24</f>
+        <f t="shared" si="0"/>
         <v>7474.4</v>
       </c>
       <c r="G24" s="1">
@@ -5912,11 +5911,11 @@
         <v>7476.00000000001</v>
       </c>
       <c r="J24" s="1">
-        <f>$L$3*I24^2+$M$3*I24+$N$3</f>
+        <f t="shared" si="1"/>
         <v>578.15811443328857</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -5933,7 +5932,7 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="F25" s="2">
-        <f>$B$1+E25</f>
+        <f t="shared" si="0"/>
         <v>7474.41</v>
       </c>
       <c r="G25" s="1">
@@ -5943,11 +5942,11 @@
         <v>7476.1000000000104</v>
       </c>
       <c r="J25" s="1">
-        <f>$L$3*I25^2+$M$3*I25+$N$3</f>
+        <f t="shared" si="1"/>
         <v>636.33130645751953</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
@@ -5964,7 +5963,7 @@
         <v>1.19</v>
       </c>
       <c r="F26" s="2">
-        <f>$B$1+E26</f>
+        <f t="shared" si="0"/>
         <v>7474.44</v>
       </c>
       <c r="G26" s="1">
@@ -5974,11 +5973,11 @@
         <v>7476.2000000000098</v>
       </c>
       <c r="J26" s="1">
-        <f>$L$3*I26^2+$M$3*I26+$N$3</f>
+        <f t="shared" si="1"/>
         <v>697.52826499938965</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
@@ -5995,7 +5994,7 @@
         <v>1.2</v>
       </c>
       <c r="F27" s="2">
-        <f>$B$1+E27</f>
+        <f t="shared" si="0"/>
         <v>7474.45</v>
       </c>
       <c r="G27" s="1">
@@ -6005,11 +6004,11 @@
         <v>7476.3000000000102</v>
       </c>
       <c r="J27" s="1">
-        <f>$L$3*I27^2+$M$3*I27+$N$3</f>
+        <f t="shared" si="1"/>
         <v>761.74898719787598</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
@@ -6026,7 +6025,7 @@
         <v>1.2</v>
       </c>
       <c r="F28" s="2">
-        <f>$B$1+E28</f>
+        <f t="shared" si="0"/>
         <v>7474.45</v>
       </c>
       <c r="G28" s="1">
@@ -6036,11 +6035,11 @@
         <v>7476.4000000000096</v>
       </c>
       <c r="J28" s="1">
-        <f>$L$3*I28^2+$M$3*I28+$N$3</f>
+        <f t="shared" si="1"/>
         <v>828.99347591400146</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -6057,7 +6056,7 @@
         <v>1.2</v>
       </c>
       <c r="F29" s="2">
-        <f>$B$1+E29</f>
+        <f t="shared" si="0"/>
         <v>7474.45</v>
       </c>
       <c r="G29" s="1">
@@ -6067,11 +6066,11 @@
         <v>7476.50000000001</v>
       </c>
       <c r="J29" s="1">
-        <f>$L$3*I29^2+$M$3*I29+$N$3</f>
+        <f t="shared" si="1"/>
         <v>899.26172828674316</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
@@ -6088,7 +6087,7 @@
         <v>1.2</v>
       </c>
       <c r="F30" s="2">
-        <f>$B$1+E30</f>
+        <f t="shared" si="0"/>
         <v>7474.45</v>
       </c>
       <c r="G30" s="1">
@@ -6098,11 +6097,11 @@
         <v>7476.6000000000104</v>
       </c>
       <c r="J30" s="1">
-        <f>$L$3*I30^2+$M$3*I30+$N$3</f>
+        <f t="shared" si="1"/>
         <v>972.55374717712402</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
@@ -6119,7 +6118,7 @@
         <v>1.21</v>
       </c>
       <c r="F31" s="2">
-        <f>$B$1+E31</f>
+        <f t="shared" si="0"/>
         <v>7474.46</v>
       </c>
       <c r="G31" s="1">
@@ -6129,11 +6128,11 @@
         <v>7476.7000000000098</v>
       </c>
       <c r="J31" s="1">
-        <f>$L$3*I31^2+$M$3*I31+$N$3</f>
+        <f t="shared" si="1"/>
         <v>1048.869532585144</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
@@ -6150,7 +6149,7 @@
         <v>1.22</v>
       </c>
       <c r="F32" s="2">
-        <f>$B$1+E32</f>
+        <f t="shared" si="0"/>
         <v>7474.47</v>
       </c>
       <c r="G32" s="1">
@@ -6160,11 +6159,11 @@
         <v>7476.8000000000102</v>
       </c>
       <c r="J32" s="1">
-        <f>$L$3*I32^2+$M$3*I32+$N$3</f>
+        <f t="shared" si="1"/>
         <v>1128.2090797424316</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
@@ -6181,7 +6180,7 @@
         <v>1.23</v>
       </c>
       <c r="F33" s="2">
-        <f>$B$1+E33</f>
+        <f t="shared" si="0"/>
         <v>7474.48</v>
       </c>
       <c r="G33" s="1">
@@ -6191,11 +6190,11 @@
         <v>7476.9000000000096</v>
       </c>
       <c r="J33" s="1">
-        <f>$L$3*I33^2+$M$3*I33+$N$3</f>
+        <f t="shared" si="1"/>
         <v>1210.5723943710327</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
@@ -6212,7 +6211,7 @@
         <v>1.23</v>
       </c>
       <c r="F34" s="2">
-        <f>$B$1+E34</f>
+        <f t="shared" si="0"/>
         <v>7474.48</v>
       </c>
       <c r="G34" s="1">
@@ -6222,11 +6221,11 @@
         <v>7477.00000000001</v>
       </c>
       <c r="J34" s="1">
-        <f>$L$3*I34^2+$M$3*I34+$N$3</f>
+        <f t="shared" si="1"/>
         <v>1295.95947265625</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
@@ -6243,7 +6242,7 @@
         <v>1.24</v>
       </c>
       <c r="F35" s="2">
-        <f>$B$1+E35</f>
+        <f t="shared" si="0"/>
         <v>7474.49</v>
       </c>
       <c r="G35" s="1">
@@ -6253,11 +6252,11 @@
         <v>7477.1000000000104</v>
       </c>
       <c r="J35" s="1">
-        <f>$L$3*I35^2+$M$3*I35+$N$3</f>
+        <f t="shared" si="1"/>
         <v>1384.3703174591064</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
@@ -6274,7 +6273,7 @@
         <v>1.25</v>
       </c>
       <c r="F36" s="2">
-        <f>$B$1+E36</f>
+        <f t="shared" si="0"/>
         <v>7474.5</v>
       </c>
       <c r="G36" s="1">
@@ -6284,11 +6283,11 @@
         <v>7477.2000000000098</v>
       </c>
       <c r="J36" s="1">
-        <f>$L$3*I36^2+$M$3*I36+$N$3</f>
+        <f t="shared" si="1"/>
         <v>1475.8049259185791</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
@@ -6305,7 +6304,7 @@
         <v>1.25</v>
       </c>
       <c r="F37" s="2">
-        <f>$B$1+E37</f>
+        <f t="shared" si="0"/>
         <v>7474.5</v>
       </c>
       <c r="G37" s="1">
@@ -6315,11 +6314,11 @@
         <v>7477.3000000000102</v>
       </c>
       <c r="J37" s="1">
-        <f>$L$3*I37^2+$M$3*I37+$N$3</f>
+        <f t="shared" ref="J37:J68" si="2">$L$3*I37^2+$M$3*I37+$N$3</f>
         <v>1570.2633018493652</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>0</v>
       </c>
@@ -6336,7 +6335,7 @@
         <v>1.26</v>
       </c>
       <c r="F38" s="2">
-        <f>$B$1+E38</f>
+        <f t="shared" si="0"/>
         <v>7474.51</v>
       </c>
       <c r="G38" s="1">
@@ -6346,11 +6345,11 @@
         <v>7477.4000000000096</v>
       </c>
       <c r="J38" s="1">
-        <f>$L$3*I38^2+$M$3*I38+$N$3</f>
+        <f t="shared" si="2"/>
         <v>1667.7454395294189</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>0</v>
       </c>
@@ -6367,7 +6366,7 @@
         <v>1.26</v>
       </c>
       <c r="F39" s="2">
-        <f>$B$1+E39</f>
+        <f t="shared" si="0"/>
         <v>7474.51</v>
       </c>
       <c r="G39" s="1">
@@ -6377,11 +6376,11 @@
         <v>7477.50000000001</v>
       </c>
       <c r="J39" s="1">
-        <f>$L$3*I39^2+$M$3*I39+$N$3</f>
+        <f t="shared" si="2"/>
         <v>1768.2513446807861</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>0</v>
       </c>
@@ -6398,7 +6397,7 @@
         <v>1.28</v>
       </c>
       <c r="F40" s="2">
-        <f>$B$1+E40</f>
+        <f t="shared" si="0"/>
         <v>7474.53</v>
       </c>
       <c r="G40" s="1">
@@ -6408,11 +6407,11 @@
         <v>7477.6000000000104</v>
       </c>
       <c r="J40" s="1">
-        <f>$L$3*I40^2+$M$3*I40+$N$3</f>
+        <f t="shared" si="2"/>
         <v>1871.7810144424438</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
@@ -6429,7 +6428,7 @@
         <v>1.28</v>
       </c>
       <c r="F41" s="2">
-        <f>$B$1+E41</f>
+        <f t="shared" si="0"/>
         <v>7474.53</v>
       </c>
       <c r="G41" s="1">
@@ -6439,11 +6438,11 @@
         <v>7477.7000000000098</v>
       </c>
       <c r="J41" s="1">
-        <f>$L$3*I41^2+$M$3*I41+$N$3</f>
+        <f t="shared" si="2"/>
         <v>1978.3344497680664</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>0</v>
       </c>
@@ -6460,7 +6459,7 @@
         <v>1.28</v>
       </c>
       <c r="F42" s="2">
-        <f>$B$1+E42</f>
+        <f t="shared" si="0"/>
         <v>7474.53</v>
       </c>
       <c r="G42" s="1">
@@ -6470,11 +6469,11 @@
         <v>7477.8000000000102</v>
       </c>
       <c r="J42" s="1">
-        <f>$L$3*I42^2+$M$3*I42+$N$3</f>
+        <f t="shared" si="2"/>
         <v>2087.9116487503052</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
@@ -6491,7 +6490,7 @@
         <v>1.29</v>
       </c>
       <c r="F43" s="2">
-        <f>$B$1+E43</f>
+        <f t="shared" si="0"/>
         <v>7474.54</v>
       </c>
       <c r="G43" s="1">
@@ -6501,11 +6500,11 @@
         <v>7477.9000000000096</v>
       </c>
       <c r="J43" s="1">
-        <f>$L$3*I43^2+$M$3*I43+$N$3</f>
+        <f t="shared" si="2"/>
         <v>2200.5126152038574</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>0</v>
       </c>
@@ -6522,7 +6521,7 @@
         <v>1.29</v>
       </c>
       <c r="F44" s="2">
-        <f>$B$1+E44</f>
+        <f t="shared" si="0"/>
         <v>7474.54</v>
       </c>
       <c r="G44" s="1">
@@ -6532,11 +6531,11 @@
         <v>7478.00000000001</v>
       </c>
       <c r="J44" s="1">
-        <f>$L$3*I44^2+$M$3*I44+$N$3</f>
+        <f t="shared" si="2"/>
         <v>2316.1373462677002</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
@@ -6553,7 +6552,7 @@
         <v>1.29</v>
       </c>
       <c r="F45" s="2">
-        <f>$B$1+E45</f>
+        <f t="shared" si="0"/>
         <v>7474.54</v>
       </c>
       <c r="G45" s="1">
@@ -6563,11 +6562,11 @@
         <v>7478.1000000000104</v>
       </c>
       <c r="J45" s="1">
-        <f>$L$3*I45^2+$M$3*I45+$N$3</f>
+        <f t="shared" si="2"/>
         <v>2434.7858409881592</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>0</v>
       </c>
@@ -6584,7 +6583,7 @@
         <v>1.29</v>
       </c>
       <c r="F46" s="2">
-        <f>$B$1+E46</f>
+        <f t="shared" si="0"/>
         <v>7474.54</v>
       </c>
       <c r="G46" s="1">
@@ -6594,11 +6593,11 @@
         <v>7478.2000000000198</v>
       </c>
       <c r="J46" s="1">
-        <f>$L$3*I46^2+$M$3*I46+$N$3</f>
+        <f t="shared" si="2"/>
         <v>2556.4581031799316</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>0</v>
       </c>
@@ -6615,7 +6614,7 @@
         <v>1.29</v>
       </c>
       <c r="F47" s="2">
-        <f>$B$1+E47</f>
+        <f t="shared" si="0"/>
         <v>7474.54</v>
       </c>
       <c r="G47" s="1">
@@ -6625,11 +6624,11 @@
         <v>7478.3000000000202</v>
       </c>
       <c r="J47" s="1">
-        <f>$L$3*I47^2+$M$3*I47+$N$3</f>
+        <f t="shared" si="2"/>
         <v>2681.1541271209717</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>0</v>
       </c>
@@ -6646,7 +6645,7 @@
         <v>1.29</v>
       </c>
       <c r="F48" s="2">
-        <f>$B$1+E48</f>
+        <f t="shared" si="0"/>
         <v>7474.54</v>
       </c>
       <c r="G48" s="1">
@@ -6656,11 +6655,11 @@
         <v>7478.4000000000196</v>
       </c>
       <c r="J48" s="1">
-        <f>$L$3*I48^2+$M$3*I48+$N$3</f>
+        <f t="shared" si="2"/>
         <v>2808.8739185333252</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>0</v>
       </c>
@@ -6677,7 +6676,7 @@
         <v>1.29</v>
       </c>
       <c r="F49" s="2">
-        <f>$B$1+E49</f>
+        <f t="shared" si="0"/>
         <v>7474.54</v>
       </c>
       <c r="G49" s="1">
@@ -6687,11 +6686,11 @@
         <v>7478.50000000002</v>
       </c>
       <c r="J49" s="1">
-        <f>$L$3*I49^2+$M$3*I49+$N$3</f>
+        <f t="shared" si="2"/>
         <v>2939.6174736022949</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>0</v>
       </c>
@@ -6708,7 +6707,7 @@
         <v>1.29</v>
       </c>
       <c r="F50" s="2">
-        <f>$B$1+E50</f>
+        <f t="shared" si="0"/>
         <v>7474.54</v>
       </c>
       <c r="G50" s="1">
@@ -6718,11 +6717,11 @@
         <v>7478.6000000000204</v>
       </c>
       <c r="J50" s="1">
-        <f>$L$3*I50^2+$M$3*I50+$N$3</f>
+        <f t="shared" si="2"/>
         <v>3073.3847961425781</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>0</v>
       </c>
@@ -6739,7 +6738,7 @@
         <v>1.3</v>
       </c>
       <c r="F51" s="2">
-        <f>$B$1+E51</f>
+        <f t="shared" si="0"/>
         <v>7474.55</v>
       </c>
       <c r="G51" s="1">
@@ -6749,11 +6748,11 @@
         <v>7478.7000000000198</v>
       </c>
       <c r="J51" s="1">
-        <f>$L$3*I51^2+$M$3*I51+$N$3</f>
+        <f t="shared" si="2"/>
         <v>3210.1758813858032</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>0</v>
       </c>
@@ -6770,7 +6769,7 @@
         <v>1.3</v>
       </c>
       <c r="F52" s="2">
-        <f>$B$1+E52</f>
+        <f t="shared" si="0"/>
         <v>7474.55</v>
       </c>
       <c r="G52" s="1">
@@ -6780,11 +6779,11 @@
         <v>7478.8000000000202</v>
       </c>
       <c r="J52" s="1">
-        <f>$L$3*I52^2+$M$3*I52+$N$3</f>
+        <f t="shared" si="2"/>
         <v>3349.9907341003418</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>0</v>
       </c>
@@ -6801,7 +6800,7 @@
         <v>1.3</v>
       </c>
       <c r="F53" s="2">
-        <f>$B$1+E53</f>
+        <f t="shared" si="0"/>
         <v>7474.55</v>
       </c>
       <c r="G53" s="1">
@@ -6811,11 +6810,11 @@
         <v>7478.9000000000196</v>
       </c>
       <c r="J53" s="1">
-        <f>$L$3*I53^2+$M$3*I53+$N$3</f>
+        <f t="shared" si="2"/>
         <v>3492.8293514251709</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>0</v>
       </c>
@@ -6832,7 +6831,7 @@
         <v>1.3</v>
       </c>
       <c r="F54" s="2">
-        <f>$B$1+E54</f>
+        <f t="shared" si="0"/>
         <v>7474.55</v>
       </c>
       <c r="G54" s="1">
@@ -6842,11 +6841,11 @@
         <v>7479.00000000002</v>
       </c>
       <c r="J54" s="1">
-        <f>$L$3*I54^2+$M$3*I54+$N$3</f>
+        <f t="shared" si="2"/>
         <v>3638.6917324066162</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>0</v>
       </c>
@@ -6863,7 +6862,7 @@
         <v>1.3</v>
       </c>
       <c r="F55" s="2">
-        <f>$B$1+E55</f>
+        <f t="shared" si="0"/>
         <v>7474.55</v>
       </c>
       <c r="G55" s="1">
@@ -6873,11 +6872,11 @@
         <v>7479.1000000000204</v>
       </c>
       <c r="J55" s="1">
-        <f>$L$3*I55^2+$M$3*I55+$N$3</f>
+        <f t="shared" si="2"/>
         <v>3787.577880859375</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>0</v>
       </c>
@@ -6894,7 +6893,7 @@
         <v>1.3</v>
       </c>
       <c r="F56" s="2">
-        <f>$B$1+E56</f>
+        <f t="shared" si="0"/>
         <v>7474.55</v>
       </c>
       <c r="G56" s="1">
@@ -6904,11 +6903,11 @@
         <v>7479.2000000000198</v>
       </c>
       <c r="J56" s="1">
-        <f>$L$3*I56^2+$M$3*I56+$N$3</f>
+        <f t="shared" si="2"/>
         <v>3939.4877920150757</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>0</v>
       </c>
@@ -6925,7 +6924,7 @@
         <v>1.3</v>
       </c>
       <c r="F57" s="2">
-        <f>$B$1+E57</f>
+        <f t="shared" si="0"/>
         <v>7474.55</v>
       </c>
       <c r="G57" s="1">
@@ -6935,11 +6934,11 @@
         <v>7479.3000000000202</v>
       </c>
       <c r="J57" s="1">
-        <f>$L$3*I57^2+$M$3*I57+$N$3</f>
+        <f t="shared" si="2"/>
         <v>4094.4214687347412</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>0</v>
       </c>
@@ -6956,7 +6955,7 @@
         <v>1.3</v>
       </c>
       <c r="F58" s="2">
-        <f>$B$1+E58</f>
+        <f t="shared" si="0"/>
         <v>7474.55</v>
       </c>
       <c r="G58" s="1">
@@ -6966,11 +6965,11 @@
         <v>7479.4000000000196</v>
       </c>
       <c r="J58" s="1">
-        <f>$L$3*I58^2+$M$3*I58+$N$3</f>
+        <f t="shared" si="2"/>
         <v>4252.3789110183716</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>0</v>
       </c>
@@ -6987,7 +6986,7 @@
         <v>1.31</v>
       </c>
       <c r="F59" s="2">
-        <f>$B$1+E59</f>
+        <f t="shared" si="0"/>
         <v>7474.56</v>
       </c>
       <c r="G59" s="1">
@@ -6997,11 +6996,11 @@
         <v>7479.50000000002</v>
       </c>
       <c r="J59" s="1">
-        <f>$L$3*I59^2+$M$3*I59+$N$3</f>
+        <f t="shared" si="2"/>
         <v>4413.3601188659668</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>0</v>
       </c>
@@ -7018,7 +7017,7 @@
         <v>1.32</v>
       </c>
       <c r="F60" s="2">
-        <f>$B$1+E60</f>
+        <f t="shared" si="0"/>
         <v>7474.57</v>
       </c>
       <c r="G60" s="1">
@@ -7028,11 +7027,11 @@
         <v>7479.6000000000204</v>
       </c>
       <c r="J60" s="1">
-        <f>$L$3*I60^2+$M$3*I60+$N$3</f>
+        <f t="shared" si="2"/>
         <v>4577.3650903701782</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>0</v>
       </c>
@@ -7049,7 +7048,7 @@
         <v>1.32</v>
       </c>
       <c r="F61" s="2">
-        <f>$B$1+E61</f>
+        <f t="shared" si="0"/>
         <v>7474.57</v>
       </c>
       <c r="G61" s="1">
@@ -7059,11 +7058,11 @@
         <v>7479.7000000000198</v>
       </c>
       <c r="J61" s="1">
-        <f>$L$3*I61^2+$M$3*I61+$N$3</f>
+        <f t="shared" si="2"/>
         <v>4744.3938293457031</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>0</v>
       </c>
@@ -7080,7 +7079,7 @@
         <v>1.32</v>
       </c>
       <c r="F62" s="2">
-        <f>$B$1+E62</f>
+        <f t="shared" si="0"/>
         <v>7474.57</v>
       </c>
       <c r="G62" s="1">
@@ -7090,11 +7089,11 @@
         <v>7479.8000000000202</v>
       </c>
       <c r="J62" s="1">
-        <f>$L$3*I62^2+$M$3*I62+$N$3</f>
+        <f t="shared" si="2"/>
         <v>4914.4463319778442</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>0</v>
       </c>
@@ -7111,7 +7110,7 @@
         <v>1.32</v>
       </c>
       <c r="F63" s="2">
-        <f>$B$1+E63</f>
+        <f t="shared" si="0"/>
         <v>7474.57</v>
       </c>
       <c r="G63" s="1">
@@ -7121,11 +7120,11 @@
         <v>7479.9000000000196</v>
       </c>
       <c r="J63" s="1">
-        <f>$L$3*I63^2+$M$3*I63+$N$3</f>
+        <f t="shared" si="2"/>
         <v>5087.5226011276245</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>0</v>
       </c>
@@ -7142,7 +7141,7 @@
         <v>1.32</v>
       </c>
       <c r="F64" s="2">
-        <f>$B$1+E64</f>
+        <f t="shared" si="0"/>
         <v>7474.57</v>
       </c>
       <c r="G64" s="1">
@@ -7152,11 +7151,11 @@
         <v>7480.00000000002</v>
       </c>
       <c r="J64" s="1">
-        <f>$L$3*I64^2+$M$3*I64+$N$3</f>
+        <f t="shared" si="2"/>
         <v>5263.6226320266724</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>0</v>
       </c>
@@ -7173,7 +7172,7 @@
         <v>1.33</v>
       </c>
       <c r="F65" s="2">
-        <f>$B$1+E65</f>
+        <f t="shared" si="0"/>
         <v>7474.58</v>
       </c>
       <c r="G65" s="1">
@@ -7183,11 +7182,11 @@
         <v>7480.1000000000204</v>
       </c>
       <c r="J65" s="1">
-        <f>$L$3*I65^2+$M$3*I65+$N$3</f>
+        <f t="shared" si="2"/>
         <v>5442.746431350708</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>0</v>
       </c>
@@ -7204,7 +7203,7 @@
         <v>1.33</v>
       </c>
       <c r="F66" s="2">
-        <f>$B$1+E66</f>
+        <f t="shared" si="0"/>
         <v>7474.58</v>
       </c>
       <c r="G66" s="1">
@@ -7214,11 +7213,11 @@
         <v>7480.2000000000198</v>
       </c>
       <c r="J66" s="1">
-        <f>$L$3*I66^2+$M$3*I66+$N$3</f>
+        <f t="shared" si="2"/>
         <v>5624.8939962387085</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>0</v>
       </c>
@@ -7235,7 +7234,7 @@
         <v>1.33</v>
       </c>
       <c r="F67" s="2">
-        <f>$B$1+E67</f>
+        <f t="shared" ref="F67:F130" si="3">$B$1+E67</f>
         <v>7474.58</v>
       </c>
       <c r="G67" s="1">
@@ -7245,11 +7244,11 @@
         <v>7480.3000000000202</v>
       </c>
       <c r="J67" s="1">
-        <f>$L$3*I67^2+$M$3*I67+$N$3</f>
+        <f t="shared" si="2"/>
         <v>5810.0653238296509</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>0</v>
       </c>
@@ -7266,7 +7265,7 @@
         <v>1.33</v>
       </c>
       <c r="F68" s="2">
-        <f>$B$1+E68</f>
+        <f t="shared" si="3"/>
         <v>7474.58</v>
       </c>
       <c r="G68" s="1">
@@ -7276,11 +7275,11 @@
         <v>7480.4000000000196</v>
       </c>
       <c r="J68" s="1">
-        <f>$L$3*I68^2+$M$3*I68+$N$3</f>
+        <f t="shared" si="2"/>
         <v>5998.2604188919067</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>0</v>
       </c>
@@ -7297,7 +7296,7 @@
         <v>1.34</v>
       </c>
       <c r="F69" s="2">
-        <f>$B$1+E69</f>
+        <f t="shared" si="3"/>
         <v>7474.59</v>
       </c>
       <c r="G69" s="1">
@@ -7307,11 +7306,11 @@
         <v>7480.50000000002</v>
       </c>
       <c r="J69" s="1">
-        <f>$L$3*I69^2+$M$3*I69+$N$3</f>
+        <f t="shared" ref="J69:J100" si="4">$L$3*I69^2+$M$3*I69+$N$3</f>
         <v>6189.4792766571045</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>0</v>
       </c>
@@ -7328,7 +7327,7 @@
         <v>1.34</v>
       </c>
       <c r="F70" s="2">
-        <f>$B$1+E70</f>
+        <f t="shared" si="3"/>
         <v>7474.59</v>
       </c>
       <c r="G70" s="1">
@@ -7338,11 +7337,11 @@
         <v>7480.6000000000204</v>
       </c>
       <c r="J70" s="1">
-        <f>$L$3*I70^2+$M$3*I70+$N$3</f>
+        <f t="shared" si="4"/>
         <v>6383.7219018936157</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>0</v>
       </c>
@@ -7359,7 +7358,7 @@
         <v>1.36</v>
       </c>
       <c r="F71" s="2">
-        <f>$B$1+E71</f>
+        <f t="shared" si="3"/>
         <v>7474.61</v>
       </c>
       <c r="G71" s="1">
@@ -7369,11 +7368,11 @@
         <v>7480.7000000000198</v>
       </c>
       <c r="J71" s="1">
-        <f>$L$3*I71^2+$M$3*I71+$N$3</f>
+        <f t="shared" si="4"/>
         <v>6580.9882898330688</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>0</v>
       </c>
@@ -7390,7 +7389,7 @@
         <v>1.37</v>
       </c>
       <c r="F72" s="2">
-        <f>$B$1+E72</f>
+        <f t="shared" si="3"/>
         <v>7474.62</v>
       </c>
       <c r="G72" s="1">
@@ -7400,11 +7399,11 @@
         <v>7480.8000000000202</v>
       </c>
       <c r="J72" s="1">
-        <f>$L$3*I72^2+$M$3*I72+$N$3</f>
+        <f t="shared" si="4"/>
         <v>6781.2784442901611</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>0</v>
       </c>
@@ -7421,7 +7420,7 @@
         <v>1.37</v>
       </c>
       <c r="F73" s="2">
-        <f>$B$1+E73</f>
+        <f t="shared" si="3"/>
         <v>7474.62</v>
       </c>
       <c r="G73" s="1">
@@ -7431,11 +7430,11 @@
         <v>7480.9000000000296</v>
       </c>
       <c r="J73" s="1">
-        <f>$L$3*I73^2+$M$3*I73+$N$3</f>
+        <f t="shared" si="4"/>
         <v>6984.5923643112183</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>0</v>
       </c>
@@ -7452,7 +7451,7 @@
         <v>1.37</v>
       </c>
       <c r="F74" s="2">
-        <f>$B$1+E74</f>
+        <f t="shared" si="3"/>
         <v>7474.62</v>
       </c>
       <c r="G74" s="1">
@@ -7462,11 +7461,11 @@
         <v>7481.00000000003</v>
       </c>
       <c r="J74" s="1">
-        <f>$L$3*I74^2+$M$3*I74+$N$3</f>
+        <f t="shared" si="4"/>
         <v>7190.9300479888916</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>0</v>
       </c>
@@ -7483,7 +7482,7 @@
         <v>1.38</v>
       </c>
       <c r="F75" s="2">
-        <f>$B$1+E75</f>
+        <f t="shared" si="3"/>
         <v>7474.63</v>
       </c>
       <c r="G75" s="1">
@@ -7493,11 +7492,11 @@
         <v>7481.1000000000304</v>
       </c>
       <c r="J75" s="1">
-        <f>$L$3*I75^2+$M$3*I75+$N$3</f>
+        <f t="shared" si="4"/>
         <v>7400.2914991378784</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>0</v>
       </c>
@@ -7514,7 +7513,7 @@
         <v>1.38</v>
       </c>
       <c r="F76" s="2">
-        <f>$B$1+E76</f>
+        <f t="shared" si="3"/>
         <v>7474.63</v>
       </c>
       <c r="G76" s="1">
@@ -7524,11 +7523,11 @@
         <v>7481.2000000000298</v>
       </c>
       <c r="J76" s="1">
-        <f>$L$3*I76^2+$M$3*I76+$N$3</f>
+        <f t="shared" si="4"/>
         <v>7612.6767129898071</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>0</v>
       </c>
@@ -7545,7 +7544,7 @@
         <v>1.39</v>
       </c>
       <c r="F77" s="2">
-        <f>$B$1+E77</f>
+        <f t="shared" si="3"/>
         <v>7474.64</v>
       </c>
       <c r="G77" s="1">
@@ -7555,11 +7554,11 @@
         <v>7481.3000000000302</v>
       </c>
       <c r="J77" s="1">
-        <f>$L$3*I77^2+$M$3*I77+$N$3</f>
+        <f t="shared" si="4"/>
         <v>7828.0856943130493</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>0</v>
       </c>
@@ -7576,7 +7575,7 @@
         <v>1.39</v>
       </c>
       <c r="F78" s="2">
-        <f>$B$1+E78</f>
+        <f t="shared" si="3"/>
         <v>7474.64</v>
       </c>
       <c r="G78" s="1">
@@ -7586,11 +7585,11 @@
         <v>7481.4000000000296</v>
       </c>
       <c r="J78" s="1">
-        <f>$L$3*I78^2+$M$3*I78+$N$3</f>
+        <f t="shared" si="4"/>
         <v>8046.5184373855591</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>0</v>
       </c>
@@ -7607,7 +7606,7 @@
         <v>1.39</v>
       </c>
       <c r="F79" s="2">
-        <f>$B$1+E79</f>
+        <f t="shared" si="3"/>
         <v>7474.64</v>
       </c>
       <c r="G79" s="1">
@@ -7617,11 +7616,11 @@
         <v>7481.50000000003</v>
       </c>
       <c r="J79" s="1">
-        <f>$L$3*I79^2+$M$3*I79+$N$3</f>
+        <f t="shared" si="4"/>
         <v>8267.9749488830566</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>0</v>
       </c>
@@ -7638,7 +7637,7 @@
         <v>1.39</v>
       </c>
       <c r="F80" s="2">
-        <f>$B$1+E80</f>
+        <f t="shared" si="3"/>
         <v>7474.64</v>
       </c>
       <c r="G80" s="1">
@@ -7648,11 +7647,11 @@
         <v>7481.6000000000304</v>
       </c>
       <c r="J80" s="1">
-        <f>$L$3*I80^2+$M$3*I80+$N$3</f>
+        <f t="shared" si="4"/>
         <v>8492.4552240371704</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>0</v>
       </c>
@@ -7669,7 +7668,7 @@
         <v>1.4</v>
       </c>
       <c r="F81" s="2">
-        <f>$B$1+E81</f>
+        <f t="shared" si="3"/>
         <v>7474.65</v>
       </c>
       <c r="G81" s="1">
@@ -7679,11 +7678,11 @@
         <v>7481.7000000000298</v>
       </c>
       <c r="J81" s="1">
-        <f>$L$3*I81^2+$M$3*I81+$N$3</f>
+        <f t="shared" si="4"/>
         <v>8719.9592657089233</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>0</v>
       </c>
@@ -7700,7 +7699,7 @@
         <v>1.4</v>
       </c>
       <c r="F82" s="2">
-        <f>$B$1+E82</f>
+        <f t="shared" si="3"/>
         <v>7474.65</v>
       </c>
       <c r="G82" s="1">
@@ -7710,11 +7709,11 @@
         <v>7481.8000000000302</v>
       </c>
       <c r="J82" s="1">
-        <f>$L$3*I82^2+$M$3*I82+$N$3</f>
+        <f t="shared" si="4"/>
         <v>8950.4870700836182</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>0</v>
       </c>
@@ -7731,14 +7730,14 @@
         <v>1.4</v>
       </c>
       <c r="F83" s="2">
-        <f>$B$1+E83</f>
+        <f t="shared" si="3"/>
         <v>7474.65</v>
       </c>
       <c r="G83" s="1">
         <v>101</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>0</v>
       </c>
@@ -7755,14 +7754,14 @@
         <v>1.42</v>
       </c>
       <c r="F84" s="2">
-        <f>$B$1+E84</f>
+        <f t="shared" si="3"/>
         <v>7474.67</v>
       </c>
       <c r="G84" s="1">
         <v>109</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>0</v>
       </c>
@@ -7779,14 +7778,14 @@
         <v>1.42</v>
       </c>
       <c r="F85" s="2">
-        <f>$B$1+E85</f>
+        <f t="shared" si="3"/>
         <v>7474.67</v>
       </c>
       <c r="G85" s="1">
         <v>93.4</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>0</v>
       </c>
@@ -7803,14 +7802,14 @@
         <v>1.43</v>
       </c>
       <c r="F86" s="2">
-        <f>$B$1+E86</f>
+        <f t="shared" si="3"/>
         <v>7474.68</v>
       </c>
       <c r="G86" s="1">
         <v>105</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>0</v>
       </c>
@@ -7827,14 +7826,14 @@
         <v>1.43</v>
       </c>
       <c r="F87" s="2">
-        <f>$B$1+E87</f>
+        <f t="shared" si="3"/>
         <v>7474.68</v>
       </c>
       <c r="G87" s="1">
         <v>102</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>0</v>
       </c>
@@ -7851,14 +7850,14 @@
         <v>1.43</v>
       </c>
       <c r="F88" s="2">
-        <f>$B$1+E88</f>
+        <f t="shared" si="3"/>
         <v>7474.68</v>
       </c>
       <c r="G88" s="1">
         <v>93.7</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>0</v>
       </c>
@@ -7875,14 +7874,14 @@
         <v>1.44</v>
       </c>
       <c r="F89" s="2">
-        <f>$B$1+E89</f>
+        <f t="shared" si="3"/>
         <v>7474.69</v>
       </c>
       <c r="G89" s="1">
         <v>94.1</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>0</v>
       </c>
@@ -7899,14 +7898,14 @@
         <v>1.44</v>
       </c>
       <c r="F90" s="2">
-        <f>$B$1+E90</f>
+        <f t="shared" si="3"/>
         <v>7474.69</v>
       </c>
       <c r="G90" s="1">
         <v>104</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>0</v>
       </c>
@@ -7923,14 +7922,14 @@
         <v>1.45</v>
       </c>
       <c r="F91" s="2">
-        <f>$B$1+E91</f>
+        <f t="shared" si="3"/>
         <v>7474.7</v>
       </c>
       <c r="G91" s="1">
         <v>103</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>0</v>
       </c>
@@ -7947,14 +7946,14 @@
         <v>1.45</v>
       </c>
       <c r="F92" s="2">
-        <f>$B$1+E92</f>
+        <f t="shared" si="3"/>
         <v>7474.7</v>
       </c>
       <c r="G92" s="1">
         <v>101</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>0</v>
       </c>
@@ -7971,14 +7970,14 @@
         <v>1.46</v>
       </c>
       <c r="F93" s="2">
-        <f>$B$1+E93</f>
+        <f t="shared" si="3"/>
         <v>7474.71</v>
       </c>
       <c r="G93" s="1">
         <v>96.1</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>0</v>
       </c>
@@ -7995,14 +7994,14 @@
         <v>1.46</v>
       </c>
       <c r="F94" s="2">
-        <f>$B$1+E94</f>
+        <f t="shared" si="3"/>
         <v>7474.71</v>
       </c>
       <c r="G94" s="1">
         <v>119</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>0</v>
       </c>
@@ -8019,14 +8018,14 @@
         <v>1.47</v>
       </c>
       <c r="F95" s="2">
-        <f>$B$1+E95</f>
+        <f t="shared" si="3"/>
         <v>7474.72</v>
       </c>
       <c r="G95" s="1">
         <v>108</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>0</v>
       </c>
@@ -8043,14 +8042,14 @@
         <v>1.47</v>
       </c>
       <c r="F96" s="2">
-        <f>$B$1+E96</f>
+        <f t="shared" si="3"/>
         <v>7474.72</v>
       </c>
       <c r="G96" s="1">
         <v>101</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>0</v>
       </c>
@@ -8067,14 +8066,14 @@
         <v>1.47</v>
       </c>
       <c r="F97" s="2">
-        <f>$B$1+E97</f>
+        <f t="shared" si="3"/>
         <v>7474.72</v>
       </c>
       <c r="G97" s="1">
         <v>97.9</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>0</v>
       </c>
@@ -8091,14 +8090,14 @@
         <v>1.47</v>
       </c>
       <c r="F98" s="2">
-        <f>$B$1+E98</f>
+        <f t="shared" si="3"/>
         <v>7474.72</v>
       </c>
       <c r="G98" s="1">
         <v>96.6</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>0</v>
       </c>
@@ -8115,14 +8114,14 @@
         <v>1.48</v>
       </c>
       <c r="F99" s="2">
-        <f>$B$1+E99</f>
+        <f t="shared" si="3"/>
         <v>7474.73</v>
       </c>
       <c r="G99" s="1">
         <v>108</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>0</v>
       </c>
@@ -8139,14 +8138,14 @@
         <v>1.48</v>
       </c>
       <c r="F100" s="2">
-        <f>$B$1+E100</f>
+        <f t="shared" si="3"/>
         <v>7474.73</v>
       </c>
       <c r="G100" s="1">
         <v>97.6</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>0</v>
       </c>
@@ -8163,14 +8162,14 @@
         <v>1.48</v>
       </c>
       <c r="F101" s="2">
-        <f>$B$1+E101</f>
+        <f t="shared" si="3"/>
         <v>7474.73</v>
       </c>
       <c r="G101" s="1">
         <v>112</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>0</v>
       </c>
@@ -8187,14 +8186,14 @@
         <v>1.48</v>
       </c>
       <c r="F102" s="2">
-        <f>$B$1+E102</f>
+        <f t="shared" si="3"/>
         <v>7474.73</v>
       </c>
       <c r="G102" s="1">
         <v>113</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>0</v>
       </c>
@@ -8211,14 +8210,14 @@
         <v>1.48</v>
       </c>
       <c r="F103" s="2">
-        <f>$B$1+E103</f>
+        <f t="shared" si="3"/>
         <v>7474.73</v>
       </c>
       <c r="G103" s="1">
         <v>107</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>0</v>
       </c>
@@ -8235,14 +8234,14 @@
         <v>1.5</v>
       </c>
       <c r="F104" s="2">
-        <f>$B$1+E104</f>
+        <f t="shared" si="3"/>
         <v>7474.75</v>
       </c>
       <c r="G104" s="1">
         <v>116</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>0</v>
       </c>
@@ -8259,14 +8258,14 @@
         <v>1.5</v>
       </c>
       <c r="F105" s="2">
-        <f>$B$1+E105</f>
+        <f t="shared" si="3"/>
         <v>7474.75</v>
       </c>
       <c r="G105" s="1">
         <v>115</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>0</v>
       </c>
@@ -8283,14 +8282,14 @@
         <v>1.51</v>
       </c>
       <c r="F106" s="2">
-        <f>$B$1+E106</f>
+        <f t="shared" si="3"/>
         <v>7474.76</v>
       </c>
       <c r="G106" s="1">
         <v>115</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>0</v>
       </c>
@@ -8307,14 +8306,14 @@
         <v>1.51</v>
       </c>
       <c r="F107" s="2">
-        <f>$B$1+E107</f>
+        <f t="shared" si="3"/>
         <v>7474.76</v>
       </c>
       <c r="G107" s="1">
         <v>113</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>0</v>
       </c>
@@ -8331,14 +8330,14 @@
         <v>1.51</v>
       </c>
       <c r="F108" s="2">
-        <f>$B$1+E108</f>
+        <f t="shared" si="3"/>
         <v>7474.76</v>
       </c>
       <c r="G108" s="1">
         <v>106</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>0</v>
       </c>
@@ -8355,14 +8354,14 @@
         <v>1.51</v>
       </c>
       <c r="F109" s="2">
-        <f>$B$1+E109</f>
+        <f t="shared" si="3"/>
         <v>7474.76</v>
       </c>
       <c r="G109" s="1">
         <v>106</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>0</v>
       </c>
@@ -8379,14 +8378,14 @@
         <v>1.51</v>
       </c>
       <c r="F110" s="2">
-        <f>$B$1+E110</f>
+        <f t="shared" si="3"/>
         <v>7474.76</v>
       </c>
       <c r="G110" s="1">
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>0</v>
       </c>
@@ -8403,14 +8402,14 @@
         <v>1.51</v>
       </c>
       <c r="F111" s="2">
-        <f>$B$1+E111</f>
+        <f t="shared" si="3"/>
         <v>7474.76</v>
       </c>
       <c r="G111" s="1">
         <v>118</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>0</v>
       </c>
@@ -8427,14 +8426,14 @@
         <v>1.51</v>
       </c>
       <c r="F112" s="2">
-        <f>$B$1+E112</f>
+        <f t="shared" si="3"/>
         <v>7474.76</v>
       </c>
       <c r="G112" s="1">
         <v>120</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>0</v>
       </c>
@@ -8451,14 +8450,14 @@
         <v>1.51</v>
       </c>
       <c r="F113" s="2">
-        <f>$B$1+E113</f>
+        <f t="shared" si="3"/>
         <v>7474.76</v>
       </c>
       <c r="G113" s="1">
         <v>114</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>0</v>
       </c>
@@ -8475,14 +8474,14 @@
         <v>1.51</v>
       </c>
       <c r="F114" s="2">
-        <f>$B$1+E114</f>
+        <f t="shared" si="3"/>
         <v>7474.76</v>
       </c>
       <c r="G114" s="1">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>0</v>
       </c>
@@ -8499,14 +8498,14 @@
         <v>1.52</v>
       </c>
       <c r="F115" s="2">
-        <f>$B$1+E115</f>
+        <f t="shared" si="3"/>
         <v>7474.77</v>
       </c>
       <c r="G115" s="1">
         <v>119</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>0</v>
       </c>
@@ -8523,14 +8522,14 @@
         <v>1.52</v>
       </c>
       <c r="F116" s="2">
-        <f>$B$1+E116</f>
+        <f t="shared" si="3"/>
         <v>7474.77</v>
       </c>
       <c r="G116" s="1">
         <v>101</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>0</v>
       </c>
@@ -8547,14 +8546,14 @@
         <v>1.52</v>
       </c>
       <c r="F117" s="2">
-        <f>$B$1+E117</f>
+        <f t="shared" si="3"/>
         <v>7474.77</v>
       </c>
       <c r="G117" s="1">
         <v>106</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>0</v>
       </c>
@@ -8571,14 +8570,14 @@
         <v>1.52</v>
       </c>
       <c r="F118" s="2">
-        <f>$B$1+E118</f>
+        <f t="shared" si="3"/>
         <v>7474.77</v>
       </c>
       <c r="G118" s="1">
         <v>106</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>0</v>
       </c>
@@ -8595,14 +8594,14 @@
         <v>1.53</v>
       </c>
       <c r="F119" s="2">
-        <f>$B$1+E119</f>
+        <f t="shared" si="3"/>
         <v>7474.78</v>
       </c>
       <c r="G119" s="1">
         <v>104</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>0</v>
       </c>
@@ -8619,14 +8618,14 @@
         <v>1.53</v>
       </c>
       <c r="F120" s="2">
-        <f>$B$1+E120</f>
+        <f t="shared" si="3"/>
         <v>7474.78</v>
       </c>
       <c r="G120" s="1">
         <v>101</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>0</v>
       </c>
@@ -8643,14 +8642,14 @@
         <v>1.53</v>
       </c>
       <c r="F121" s="2">
-        <f>$B$1+E121</f>
+        <f t="shared" si="3"/>
         <v>7474.78</v>
       </c>
       <c r="G121" s="1">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>0</v>
       </c>
@@ -8667,14 +8666,14 @@
         <v>1.53</v>
       </c>
       <c r="F122" s="2">
-        <f>$B$1+E122</f>
+        <f t="shared" si="3"/>
         <v>7474.78</v>
       </c>
       <c r="G122" s="1">
         <v>109</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>0</v>
       </c>
@@ -8691,14 +8690,14 @@
         <v>1.53</v>
       </c>
       <c r="F123" s="2">
-        <f>$B$1+E123</f>
+        <f t="shared" si="3"/>
         <v>7474.78</v>
       </c>
       <c r="G123" s="1">
         <v>128</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>0</v>
       </c>
@@ -8715,14 +8714,14 @@
         <v>1.53</v>
       </c>
       <c r="F124" s="2">
-        <f>$B$1+E124</f>
+        <f t="shared" si="3"/>
         <v>7474.78</v>
       </c>
       <c r="G124" s="1">
         <v>128</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>0</v>
       </c>
@@ -8739,14 +8738,14 @@
         <v>1.53</v>
       </c>
       <c r="F125" s="2">
-        <f>$B$1+E125</f>
+        <f t="shared" si="3"/>
         <v>7474.78</v>
       </c>
       <c r="G125" s="1">
         <v>111</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>0</v>
       </c>
@@ -8763,14 +8762,14 @@
         <v>1.53</v>
       </c>
       <c r="F126" s="2">
-        <f>$B$1+E126</f>
+        <f t="shared" si="3"/>
         <v>7474.78</v>
       </c>
       <c r="G126" s="1">
         <v>113</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>0</v>
       </c>
@@ -8787,14 +8786,14 @@
         <v>1.53</v>
       </c>
       <c r="F127" s="2">
-        <f>$B$1+E127</f>
+        <f t="shared" si="3"/>
         <v>7474.78</v>
       </c>
       <c r="G127" s="1">
         <v>105</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>0</v>
       </c>
@@ -8811,14 +8810,14 @@
         <v>1.54</v>
       </c>
       <c r="F128" s="2">
-        <f>$B$1+E128</f>
+        <f t="shared" si="3"/>
         <v>7474.79</v>
       </c>
       <c r="G128" s="1">
         <v>112</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>0</v>
       </c>
@@ -8835,14 +8834,14 @@
         <v>1.54</v>
       </c>
       <c r="F129" s="2">
-        <f>$B$1+E129</f>
+        <f t="shared" si="3"/>
         <v>7474.79</v>
       </c>
       <c r="G129" s="1">
         <v>119</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>0</v>
       </c>
@@ -8859,14 +8858,14 @@
         <v>1.54</v>
       </c>
       <c r="F130" s="2">
-        <f>$B$1+E130</f>
+        <f t="shared" si="3"/>
         <v>7474.79</v>
       </c>
       <c r="G130" s="1">
         <v>103</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>0</v>
       </c>
@@ -8883,14 +8882,14 @@
         <v>1.54</v>
       </c>
       <c r="F131" s="2">
-        <f>$B$1+E131</f>
+        <f t="shared" ref="F131:F194" si="5">$B$1+E131</f>
         <v>7474.79</v>
       </c>
       <c r="G131" s="1">
         <v>109</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>0</v>
       </c>
@@ -8907,14 +8906,14 @@
         <v>1.54</v>
       </c>
       <c r="F132" s="2">
-        <f>$B$1+E132</f>
+        <f t="shared" si="5"/>
         <v>7474.79</v>
       </c>
       <c r="G132" s="1">
         <v>125</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>0</v>
       </c>
@@ -8931,14 +8930,14 @@
         <v>1.54</v>
       </c>
       <c r="F133" s="2">
-        <f>$B$1+E133</f>
+        <f t="shared" si="5"/>
         <v>7474.79</v>
       </c>
       <c r="G133" s="1">
         <v>122</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>0</v>
       </c>
@@ -8955,14 +8954,14 @@
         <v>1.55</v>
       </c>
       <c r="F134" s="2">
-        <f>$B$1+E134</f>
+        <f t="shared" si="5"/>
         <v>7474.8</v>
       </c>
       <c r="G134" s="1">
         <v>115</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>0</v>
       </c>
@@ -8979,14 +8978,14 @@
         <v>1.55</v>
       </c>
       <c r="F135" s="2">
-        <f>$B$1+E135</f>
+        <f t="shared" si="5"/>
         <v>7474.8</v>
       </c>
       <c r="G135" s="1">
         <v>111</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>0</v>
       </c>
@@ -9003,14 +9002,14 @@
         <v>1.55</v>
       </c>
       <c r="F136" s="2">
-        <f>$B$1+E136</f>
+        <f t="shared" si="5"/>
         <v>7474.8</v>
       </c>
       <c r="G136" s="1">
         <v>111</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>0</v>
       </c>
@@ -9027,14 +9026,14 @@
         <v>1.55</v>
       </c>
       <c r="F137" s="2">
-        <f>$B$1+E137</f>
+        <f t="shared" si="5"/>
         <v>7474.8</v>
       </c>
       <c r="G137" s="1">
         <v>113</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>0</v>
       </c>
@@ -9051,14 +9050,14 @@
         <v>1.55</v>
       </c>
       <c r="F138" s="2">
-        <f>$B$1+E138</f>
+        <f t="shared" si="5"/>
         <v>7474.8</v>
       </c>
       <c r="G138" s="1">
         <v>105</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>0</v>
       </c>
@@ -9075,14 +9074,14 @@
         <v>1.56</v>
       </c>
       <c r="F139" s="2">
-        <f>$B$1+E139</f>
+        <f t="shared" si="5"/>
         <v>7474.81</v>
       </c>
       <c r="G139" s="1">
         <v>115</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>0</v>
       </c>
@@ -9099,14 +9098,14 @@
         <v>1.56</v>
       </c>
       <c r="F140" s="2">
-        <f>$B$1+E140</f>
+        <f t="shared" si="5"/>
         <v>7474.81</v>
       </c>
       <c r="G140" s="1">
         <v>118</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>0</v>
       </c>
@@ -9123,14 +9122,14 @@
         <v>1.56</v>
       </c>
       <c r="F141" s="2">
-        <f>$B$1+E141</f>
+        <f t="shared" si="5"/>
         <v>7474.81</v>
       </c>
       <c r="G141" s="1">
         <v>103</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>0</v>
       </c>
@@ -9147,14 +9146,14 @@
         <v>1.56</v>
       </c>
       <c r="F142" s="2">
-        <f>$B$1+E142</f>
+        <f t="shared" si="5"/>
         <v>7474.81</v>
       </c>
       <c r="G142" s="1">
         <v>116</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>0</v>
       </c>
@@ -9171,14 +9170,14 @@
         <v>1.56</v>
       </c>
       <c r="F143" s="2">
-        <f>$B$1+E143</f>
+        <f t="shared" si="5"/>
         <v>7474.81</v>
       </c>
       <c r="G143" s="1">
         <v>127</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>0</v>
       </c>
@@ -9195,14 +9194,14 @@
         <v>1.57</v>
       </c>
       <c r="F144" s="2">
-        <f>$B$1+E144</f>
+        <f t="shared" si="5"/>
         <v>7474.82</v>
       </c>
       <c r="G144" s="1">
         <v>119</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>0</v>
       </c>
@@ -9219,14 +9218,14 @@
         <v>1.57</v>
       </c>
       <c r="F145" s="2">
-        <f>$B$1+E145</f>
+        <f t="shared" si="5"/>
         <v>7474.82</v>
       </c>
       <c r="G145" s="1">
         <v>124</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>0</v>
       </c>
@@ -9243,14 +9242,14 @@
         <v>1.57</v>
       </c>
       <c r="F146" s="2">
-        <f>$B$1+E146</f>
+        <f t="shared" si="5"/>
         <v>7474.82</v>
       </c>
       <c r="G146" s="1">
         <v>124</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>0</v>
       </c>
@@ -9267,14 +9266,14 @@
         <v>1.57</v>
       </c>
       <c r="F147" s="2">
-        <f>$B$1+E147</f>
+        <f t="shared" si="5"/>
         <v>7474.82</v>
       </c>
       <c r="G147" s="1">
         <v>108</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>0</v>
       </c>
@@ -9291,14 +9290,14 @@
         <v>1.57</v>
       </c>
       <c r="F148" s="2">
-        <f>$B$1+E148</f>
+        <f t="shared" si="5"/>
         <v>7474.82</v>
       </c>
       <c r="G148" s="1">
         <v>114</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>0</v>
       </c>
@@ -9315,14 +9314,14 @@
         <v>1.58</v>
       </c>
       <c r="F149" s="2">
-        <f>$B$1+E149</f>
+        <f t="shared" si="5"/>
         <v>7474.83</v>
       </c>
       <c r="G149" s="1">
         <v>122</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>0</v>
       </c>
@@ -9339,14 +9338,14 @@
         <v>1.58</v>
       </c>
       <c r="F150" s="2">
-        <f>$B$1+E150</f>
+        <f t="shared" si="5"/>
         <v>7474.83</v>
       </c>
       <c r="G150" s="1">
         <v>122</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>0</v>
       </c>
@@ -9363,14 +9362,14 @@
         <v>1.58</v>
       </c>
       <c r="F151" s="2">
-        <f>$B$1+E151</f>
+        <f t="shared" si="5"/>
         <v>7474.83</v>
       </c>
       <c r="G151" s="1">
         <v>121</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>0</v>
       </c>
@@ -9387,14 +9386,14 @@
         <v>1.58</v>
       </c>
       <c r="F152" s="2">
-        <f>$B$1+E152</f>
+        <f t="shared" si="5"/>
         <v>7474.83</v>
       </c>
       <c r="G152" s="1">
         <v>125</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>0</v>
       </c>
@@ -9411,14 +9410,14 @@
         <v>1.59</v>
       </c>
       <c r="F153" s="2">
-        <f>$B$1+E153</f>
+        <f t="shared" si="5"/>
         <v>7474.84</v>
       </c>
       <c r="G153" s="1">
         <v>136</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>0</v>
       </c>
@@ -9435,14 +9434,14 @@
         <v>1.59</v>
       </c>
       <c r="F154" s="2">
-        <f>$B$1+E154</f>
+        <f t="shared" si="5"/>
         <v>7474.84</v>
       </c>
       <c r="G154" s="1">
         <v>114</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>0</v>
       </c>
@@ -9459,14 +9458,14 @@
         <v>1.59</v>
       </c>
       <c r="F155" s="2">
-        <f>$B$1+E155</f>
+        <f t="shared" si="5"/>
         <v>7474.84</v>
       </c>
       <c r="G155" s="1">
         <v>116</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>0</v>
       </c>
@@ -9483,14 +9482,14 @@
         <v>1.6</v>
       </c>
       <c r="F156" s="2">
-        <f>$B$1+E156</f>
+        <f t="shared" si="5"/>
         <v>7474.85</v>
       </c>
       <c r="G156" s="1">
         <v>125</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>0</v>
       </c>
@@ -9507,14 +9506,14 @@
         <v>1.6</v>
       </c>
       <c r="F157" s="2">
-        <f>$B$1+E157</f>
+        <f t="shared" si="5"/>
         <v>7474.85</v>
       </c>
       <c r="G157" s="1">
         <v>117</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>0</v>
       </c>
@@ -9531,14 +9530,14 @@
         <v>1.6</v>
       </c>
       <c r="F158" s="2">
-        <f>$B$1+E158</f>
+        <f t="shared" si="5"/>
         <v>7474.85</v>
       </c>
       <c r="G158" s="1">
         <v>126</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>0</v>
       </c>
@@ -9555,14 +9554,14 @@
         <v>1.61</v>
       </c>
       <c r="F159" s="2">
-        <f>$B$1+E159</f>
+        <f t="shared" si="5"/>
         <v>7474.86</v>
       </c>
       <c r="G159" s="1">
         <v>141</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>0</v>
       </c>
@@ -9579,14 +9578,14 @@
         <v>1.61</v>
       </c>
       <c r="F160" s="2">
-        <f>$B$1+E160</f>
+        <f t="shared" si="5"/>
         <v>7474.86</v>
       </c>
       <c r="G160" s="1">
         <v>131</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>0</v>
       </c>
@@ -9603,14 +9602,14 @@
         <v>1.61</v>
       </c>
       <c r="F161" s="2">
-        <f>$B$1+E161</f>
+        <f t="shared" si="5"/>
         <v>7474.86</v>
       </c>
       <c r="G161" s="1">
         <v>119</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>0</v>
       </c>
@@ -9627,14 +9626,14 @@
         <v>1.61</v>
       </c>
       <c r="F162" s="2">
-        <f>$B$1+E162</f>
+        <f t="shared" si="5"/>
         <v>7474.86</v>
       </c>
       <c r="G162" s="1">
         <v>140</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>0</v>
       </c>
@@ -9651,14 +9650,14 @@
         <v>1.61</v>
       </c>
       <c r="F163" s="2">
-        <f>$B$1+E163</f>
+        <f t="shared" si="5"/>
         <v>7474.86</v>
       </c>
       <c r="G163" s="1">
         <v>121</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>0</v>
       </c>
@@ -9675,14 +9674,14 @@
         <v>1.61</v>
       </c>
       <c r="F164" s="2">
-        <f>$B$1+E164</f>
+        <f t="shared" si="5"/>
         <v>7474.86</v>
       </c>
       <c r="G164" s="1">
         <v>123</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>0</v>
       </c>
@@ -9699,14 +9698,14 @@
         <v>1.61</v>
       </c>
       <c r="F165" s="2">
-        <f>$B$1+E165</f>
+        <f t="shared" si="5"/>
         <v>7474.86</v>
       </c>
       <c r="G165" s="1">
         <v>123</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>0</v>
       </c>
@@ -9723,14 +9722,14 @@
         <v>1.62</v>
       </c>
       <c r="F166" s="2">
-        <f>$B$1+E166</f>
+        <f t="shared" si="5"/>
         <v>7474.87</v>
       </c>
       <c r="G166" s="1">
         <v>141</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>0</v>
       </c>
@@ -9747,14 +9746,14 @@
         <v>1.62</v>
       </c>
       <c r="F167" s="2">
-        <f>$B$1+E167</f>
+        <f t="shared" si="5"/>
         <v>7474.87</v>
       </c>
       <c r="G167" s="1">
         <v>133</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>0</v>
       </c>
@@ -9771,14 +9770,14 @@
         <v>1.62</v>
       </c>
       <c r="F168" s="2">
-        <f>$B$1+E168</f>
+        <f t="shared" si="5"/>
         <v>7474.87</v>
       </c>
       <c r="G168" s="1">
         <v>134</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>0</v>
       </c>
@@ -9795,14 +9794,14 @@
         <v>1.63</v>
       </c>
       <c r="F169" s="2">
-        <f>$B$1+E169</f>
+        <f t="shared" si="5"/>
         <v>7474.88</v>
       </c>
       <c r="G169" s="1">
         <v>142</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>0</v>
       </c>
@@ -9819,14 +9818,14 @@
         <v>1.63</v>
       </c>
       <c r="F170" s="2">
-        <f>$B$1+E170</f>
+        <f t="shared" si="5"/>
         <v>7474.88</v>
       </c>
       <c r="G170" s="1">
         <v>133</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>0</v>
       </c>
@@ -9843,14 +9842,14 @@
         <v>1.63</v>
       </c>
       <c r="F171" s="2">
-        <f>$B$1+E171</f>
+        <f t="shared" si="5"/>
         <v>7474.88</v>
       </c>
       <c r="G171" s="1">
         <v>130</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>0</v>
       </c>
@@ -9867,14 +9866,14 @@
         <v>1.63</v>
       </c>
       <c r="F172" s="2">
-        <f>$B$1+E172</f>
+        <f t="shared" si="5"/>
         <v>7474.88</v>
       </c>
       <c r="G172" s="1">
         <v>135</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>0</v>
       </c>
@@ -9891,14 +9890,14 @@
         <v>1.63</v>
       </c>
       <c r="F173" s="2">
-        <f>$B$1+E173</f>
+        <f t="shared" si="5"/>
         <v>7474.88</v>
       </c>
       <c r="G173" s="1">
         <v>131</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>0</v>
       </c>
@@ -9915,14 +9914,14 @@
         <v>1.64</v>
       </c>
       <c r="F174" s="2">
-        <f>$B$1+E174</f>
+        <f t="shared" si="5"/>
         <v>7474.89</v>
       </c>
       <c r="G174" s="1">
         <v>121</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>0</v>
       </c>
@@ -9939,14 +9938,14 @@
         <v>1.64</v>
       </c>
       <c r="F175" s="2">
-        <f>$B$1+E175</f>
+        <f t="shared" si="5"/>
         <v>7474.89</v>
       </c>
       <c r="G175" s="1">
         <v>138</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>0</v>
       </c>
@@ -9963,14 +9962,14 @@
         <v>1.64</v>
       </c>
       <c r="F176" s="2">
-        <f>$B$1+E176</f>
+        <f t="shared" si="5"/>
         <v>7474.89</v>
       </c>
       <c r="G176" s="1">
         <v>140</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>0</v>
       </c>
@@ -9987,14 +9986,14 @@
         <v>1.64</v>
       </c>
       <c r="F177" s="2">
-        <f>$B$1+E177</f>
+        <f t="shared" si="5"/>
         <v>7474.89</v>
       </c>
       <c r="G177" s="1">
         <v>125</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>0</v>
       </c>
@@ -10011,14 +10010,14 @@
         <v>1.64</v>
       </c>
       <c r="F178" s="2">
-        <f>$B$1+E178</f>
+        <f t="shared" si="5"/>
         <v>7474.89</v>
       </c>
       <c r="G178" s="1">
         <v>124</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>0</v>
       </c>
@@ -10035,14 +10034,14 @@
         <v>1.64</v>
       </c>
       <c r="F179" s="2">
-        <f>$B$1+E179</f>
+        <f t="shared" si="5"/>
         <v>7474.89</v>
       </c>
       <c r="G179" s="1">
         <v>127</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>0</v>
       </c>
@@ -10059,14 +10058,14 @@
         <v>1.64</v>
       </c>
       <c r="F180" s="2">
-        <f>$B$1+E180</f>
+        <f t="shared" si="5"/>
         <v>7474.89</v>
       </c>
       <c r="G180" s="1">
         <v>132</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>0</v>
       </c>
@@ -10083,14 +10082,14 @@
         <v>1.65</v>
       </c>
       <c r="F181" s="2">
-        <f>$B$1+E181</f>
+        <f t="shared" si="5"/>
         <v>7474.9</v>
       </c>
       <c r="G181" s="1">
         <v>139</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>0</v>
       </c>
@@ -10107,14 +10106,14 @@
         <v>1.66</v>
       </c>
       <c r="F182" s="2">
-        <f>$B$1+E182</f>
+        <f t="shared" si="5"/>
         <v>7474.91</v>
       </c>
       <c r="G182" s="1">
         <v>134</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>0</v>
       </c>
@@ -10131,14 +10130,14 @@
         <v>1.66</v>
       </c>
       <c r="F183" s="2">
-        <f>$B$1+E183</f>
+        <f t="shared" si="5"/>
         <v>7474.91</v>
       </c>
       <c r="G183" s="1">
         <v>136</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>0</v>
       </c>
@@ -10155,14 +10154,14 @@
         <v>1.66</v>
       </c>
       <c r="F184" s="2">
-        <f>$B$1+E184</f>
+        <f t="shared" si="5"/>
         <v>7474.91</v>
       </c>
       <c r="G184" s="1">
         <v>143</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>0</v>
       </c>
@@ -10179,14 +10178,14 @@
         <v>1.66</v>
       </c>
       <c r="F185" s="2">
-        <f>$B$1+E185</f>
+        <f t="shared" si="5"/>
         <v>7474.91</v>
       </c>
       <c r="G185" s="1">
         <v>147</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>0</v>
       </c>
@@ -10203,14 +10202,14 @@
         <v>1.67</v>
       </c>
       <c r="F186" s="2">
-        <f>$B$1+E186</f>
+        <f t="shared" si="5"/>
         <v>7474.92</v>
       </c>
       <c r="G186" s="1">
         <v>129</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>0</v>
       </c>
@@ -10227,14 +10226,14 @@
         <v>1.67</v>
       </c>
       <c r="F187" s="2">
-        <f>$B$1+E187</f>
+        <f t="shared" si="5"/>
         <v>7474.92</v>
       </c>
       <c r="G187" s="1">
         <v>129</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>0</v>
       </c>
@@ -10251,14 +10250,14 @@
         <v>1.67</v>
       </c>
       <c r="F188" s="2">
-        <f>$B$1+E188</f>
+        <f t="shared" si="5"/>
         <v>7474.92</v>
       </c>
       <c r="G188" s="1">
         <v>132</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>0</v>
       </c>
@@ -10275,14 +10274,14 @@
         <v>1.67</v>
       </c>
       <c r="F189" s="2">
-        <f>$B$1+E189</f>
+        <f t="shared" si="5"/>
         <v>7474.92</v>
       </c>
       <c r="G189" s="1">
         <v>146</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>0</v>
       </c>
@@ -10299,14 +10298,14 @@
         <v>1.67</v>
       </c>
       <c r="F190" s="2">
-        <f>$B$1+E190</f>
+        <f t="shared" si="5"/>
         <v>7474.92</v>
       </c>
       <c r="G190" s="1">
         <v>143</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>0</v>
       </c>
@@ -10323,14 +10322,14 @@
         <v>1.68</v>
       </c>
       <c r="F191" s="2">
-        <f>$B$1+E191</f>
+        <f t="shared" si="5"/>
         <v>7474.93</v>
       </c>
       <c r="G191" s="1">
         <v>137</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>0</v>
       </c>
@@ -10347,14 +10346,14 @@
         <v>1.68</v>
       </c>
       <c r="F192" s="2">
-        <f>$B$1+E192</f>
+        <f t="shared" si="5"/>
         <v>7474.93</v>
       </c>
       <c r="G192" s="1">
         <v>142</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>0</v>
       </c>
@@ -10371,14 +10370,14 @@
         <v>1.69</v>
       </c>
       <c r="F193" s="2">
-        <f>$B$1+E193</f>
+        <f t="shared" si="5"/>
         <v>7474.94</v>
       </c>
       <c r="G193" s="1">
         <v>149</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>0</v>
       </c>
@@ -10395,14 +10394,14 @@
         <v>1.69</v>
       </c>
       <c r="F194" s="2">
-        <f>$B$1+E194</f>
+        <f t="shared" si="5"/>
         <v>7474.94</v>
       </c>
       <c r="G194" s="1">
         <v>141</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>0</v>
       </c>
@@ -10419,14 +10418,14 @@
         <v>1.69</v>
       </c>
       <c r="F195" s="2">
-        <f>$B$1+E195</f>
+        <f t="shared" ref="F195:F258" si="6">$B$1+E195</f>
         <v>7474.94</v>
       </c>
       <c r="G195" s="1">
         <v>153</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>0</v>
       </c>
@@ -10443,14 +10442,14 @@
         <v>1.7</v>
       </c>
       <c r="F196" s="2">
-        <f>$B$1+E196</f>
+        <f t="shared" si="6"/>
         <v>7474.95</v>
       </c>
       <c r="G196" s="1">
         <v>150</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>0</v>
       </c>
@@ -10467,14 +10466,14 @@
         <v>1.71</v>
       </c>
       <c r="F197" s="2">
-        <f>$B$1+E197</f>
+        <f t="shared" si="6"/>
         <v>7474.96</v>
       </c>
       <c r="G197" s="1">
         <v>146</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>0</v>
       </c>
@@ -10491,14 +10490,14 @@
         <v>1.71</v>
       </c>
       <c r="F198" s="2">
-        <f>$B$1+E198</f>
+        <f t="shared" si="6"/>
         <v>7474.96</v>
       </c>
       <c r="G198" s="1">
         <v>154</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>0</v>
       </c>
@@ -10515,14 +10514,14 @@
         <v>1.73</v>
       </c>
       <c r="F199" s="2">
-        <f>$B$1+E199</f>
+        <f t="shared" si="6"/>
         <v>7474.98</v>
       </c>
       <c r="G199" s="1">
         <v>149</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>0</v>
       </c>
@@ -10539,14 +10538,14 @@
         <v>1.73</v>
       </c>
       <c r="F200" s="2">
-        <f>$B$1+E200</f>
+        <f t="shared" si="6"/>
         <v>7474.98</v>
       </c>
       <c r="G200" s="1">
         <v>149</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>0</v>
       </c>
@@ -10563,14 +10562,14 @@
         <v>1.74</v>
       </c>
       <c r="F201" s="2">
-        <f>$B$1+E201</f>
+        <f t="shared" si="6"/>
         <v>7474.99</v>
       </c>
       <c r="G201" s="1">
         <v>160</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>0</v>
       </c>
@@ -10587,14 +10586,14 @@
         <v>1.74</v>
       </c>
       <c r="F202" s="2">
-        <f>$B$1+E202</f>
+        <f t="shared" si="6"/>
         <v>7474.99</v>
       </c>
       <c r="G202" s="1">
         <v>165</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>0</v>
       </c>
@@ -10611,14 +10610,14 @@
         <v>1.75</v>
       </c>
       <c r="F203" s="2">
-        <f>$B$1+E203</f>
+        <f t="shared" si="6"/>
         <v>7475</v>
       </c>
       <c r="G203" s="1">
         <v>154</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>0</v>
       </c>
@@ -10635,14 +10634,14 @@
         <v>1.75</v>
       </c>
       <c r="F204" s="2">
-        <f>$B$1+E204</f>
+        <f t="shared" si="6"/>
         <v>7475</v>
       </c>
       <c r="G204" s="1">
         <v>151</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>0</v>
       </c>
@@ -10659,14 +10658,14 @@
         <v>1.75</v>
       </c>
       <c r="F205" s="2">
-        <f>$B$1+E205</f>
+        <f t="shared" si="6"/>
         <v>7475</v>
       </c>
       <c r="G205" s="1">
         <v>164</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>0</v>
       </c>
@@ -10683,14 +10682,14 @@
         <v>1.75</v>
       </c>
       <c r="F206" s="2">
-        <f>$B$1+E206</f>
+        <f t="shared" si="6"/>
         <v>7475</v>
       </c>
       <c r="G206" s="1">
         <v>165</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>0</v>
       </c>
@@ -10707,14 +10706,14 @@
         <v>1.77</v>
       </c>
       <c r="F207" s="2">
-        <f>$B$1+E207</f>
+        <f t="shared" si="6"/>
         <v>7475.02</v>
       </c>
       <c r="G207" s="1">
         <v>168</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>0</v>
       </c>
@@ -10731,14 +10730,14 @@
         <v>1.78</v>
       </c>
       <c r="F208" s="2">
-        <f>$B$1+E208</f>
+        <f t="shared" si="6"/>
         <v>7475.03</v>
       </c>
       <c r="G208" s="1">
         <v>164</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>0</v>
       </c>
@@ -10755,14 +10754,14 @@
         <v>1.78</v>
       </c>
       <c r="F209" s="2">
-        <f>$B$1+E209</f>
+        <f t="shared" si="6"/>
         <v>7475.03</v>
       </c>
       <c r="G209" s="1">
         <v>167</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>0</v>
       </c>
@@ -10779,14 +10778,14 @@
         <v>1.78</v>
       </c>
       <c r="F210" s="2">
-        <f>$B$1+E210</f>
+        <f t="shared" si="6"/>
         <v>7475.03</v>
       </c>
       <c r="G210" s="1">
         <v>177</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>0</v>
       </c>
@@ -10803,14 +10802,14 @@
         <v>1.79</v>
       </c>
       <c r="F211" s="2">
-        <f>$B$1+E211</f>
+        <f t="shared" si="6"/>
         <v>7475.04</v>
       </c>
       <c r="G211" s="1">
         <v>151</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>0</v>
       </c>
@@ -10827,14 +10826,14 @@
         <v>1.79</v>
       </c>
       <c r="F212" s="2">
-        <f>$B$1+E212</f>
+        <f t="shared" si="6"/>
         <v>7475.04</v>
       </c>
       <c r="G212" s="1">
         <v>165</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>0</v>
       </c>
@@ -10851,14 +10850,14 @@
         <v>1.8</v>
       </c>
       <c r="F213" s="2">
-        <f>$B$1+E213</f>
+        <f t="shared" si="6"/>
         <v>7475.05</v>
       </c>
       <c r="G213" s="1">
         <v>154</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>0</v>
       </c>
@@ -10875,14 +10874,14 @@
         <v>1.81</v>
       </c>
       <c r="F214" s="2">
-        <f>$B$1+E214</f>
+        <f t="shared" si="6"/>
         <v>7475.06</v>
       </c>
       <c r="G214" s="1">
         <v>178</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>0</v>
       </c>
@@ -10899,14 +10898,14 @@
         <v>1.81</v>
       </c>
       <c r="F215" s="2">
-        <f>$B$1+E215</f>
+        <f t="shared" si="6"/>
         <v>7475.06</v>
       </c>
       <c r="G215" s="1">
         <v>194</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>0</v>
       </c>
@@ -10923,14 +10922,14 @@
         <v>1.82</v>
       </c>
       <c r="F216" s="2">
-        <f>$B$1+E216</f>
+        <f t="shared" si="6"/>
         <v>7475.07</v>
       </c>
       <c r="G216" s="1">
         <v>174</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>0</v>
       </c>
@@ -10947,14 +10946,14 @@
         <v>1.82</v>
       </c>
       <c r="F217" s="2">
-        <f>$B$1+E217</f>
+        <f t="shared" si="6"/>
         <v>7475.07</v>
       </c>
       <c r="G217" s="1">
         <v>174</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>0</v>
       </c>
@@ -10971,14 +10970,14 @@
         <v>1.82</v>
       </c>
       <c r="F218" s="2">
-        <f>$B$1+E218</f>
+        <f t="shared" si="6"/>
         <v>7475.07</v>
       </c>
       <c r="G218" s="1">
         <v>176</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
         <v>0</v>
       </c>
@@ -10995,14 +10994,14 @@
         <v>1.82</v>
       </c>
       <c r="F219" s="2">
-        <f>$B$1+E219</f>
+        <f t="shared" si="6"/>
         <v>7475.07</v>
       </c>
       <c r="G219" s="1">
         <v>165</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
         <v>0</v>
       </c>
@@ -11019,14 +11018,14 @@
         <v>1.83</v>
       </c>
       <c r="F220" s="2">
-        <f>$B$1+E220</f>
+        <f t="shared" si="6"/>
         <v>7475.08</v>
       </c>
       <c r="G220" s="1">
         <v>180</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>0</v>
       </c>
@@ -11043,14 +11042,14 @@
         <v>1.84</v>
       </c>
       <c r="F221" s="2">
-        <f>$B$1+E221</f>
+        <f t="shared" si="6"/>
         <v>7475.09</v>
       </c>
       <c r="G221" s="1">
         <v>174</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>0</v>
       </c>
@@ -11067,14 +11066,14 @@
         <v>1.84</v>
       </c>
       <c r="F222" s="2">
-        <f>$B$1+E222</f>
+        <f t="shared" si="6"/>
         <v>7475.09</v>
       </c>
       <c r="G222" s="1">
         <v>187</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
         <v>0</v>
       </c>
@@ -11091,14 +11090,14 @@
         <v>1.84</v>
       </c>
       <c r="F223" s="2">
-        <f>$B$1+E223</f>
+        <f t="shared" si="6"/>
         <v>7475.09</v>
       </c>
       <c r="G223" s="1">
         <v>192</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
         <v>0</v>
       </c>
@@ -11115,14 +11114,14 @@
         <v>1.84</v>
       </c>
       <c r="F224" s="2">
-        <f>$B$1+E224</f>
+        <f t="shared" si="6"/>
         <v>7475.09</v>
       </c>
       <c r="G224" s="1">
         <v>184</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>0</v>
       </c>
@@ -11139,14 +11138,14 @@
         <v>1.84</v>
       </c>
       <c r="F225" s="2">
-        <f>$B$1+E225</f>
+        <f t="shared" si="6"/>
         <v>7475.09</v>
       </c>
       <c r="G225" s="1">
         <v>191</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>0</v>
       </c>
@@ -11163,14 +11162,14 @@
         <v>1.84</v>
       </c>
       <c r="F226" s="2">
-        <f>$B$1+E226</f>
+        <f t="shared" si="6"/>
         <v>7475.09</v>
       </c>
       <c r="G226" s="1">
         <v>185</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
         <v>0</v>
       </c>
@@ -11187,14 +11186,14 @@
         <v>1.85</v>
       </c>
       <c r="F227" s="2">
-        <f>$B$1+E227</f>
+        <f t="shared" si="6"/>
         <v>7475.1</v>
       </c>
       <c r="G227" s="1">
         <v>185</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
         <v>0</v>
       </c>
@@ -11211,14 +11210,14 @@
         <v>1.85</v>
       </c>
       <c r="F228" s="2">
-        <f>$B$1+E228</f>
+        <f t="shared" si="6"/>
         <v>7475.1</v>
       </c>
       <c r="G228" s="1">
         <v>175</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
         <v>0</v>
       </c>
@@ -11235,14 +11234,14 @@
         <v>1.85</v>
       </c>
       <c r="F229" s="2">
-        <f>$B$1+E229</f>
+        <f t="shared" si="6"/>
         <v>7475.1</v>
       </c>
       <c r="G229" s="1">
         <v>187</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
         <v>0</v>
       </c>
@@ -11259,14 +11258,14 @@
         <v>1.86</v>
       </c>
       <c r="F230" s="2">
-        <f>$B$1+E230</f>
+        <f t="shared" si="6"/>
         <v>7475.11</v>
       </c>
       <c r="G230" s="1">
         <v>193</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
         <v>0</v>
       </c>
@@ -11283,14 +11282,14 @@
         <v>1.86</v>
       </c>
       <c r="F231" s="2">
-        <f>$B$1+E231</f>
+        <f t="shared" si="6"/>
         <v>7475.11</v>
       </c>
       <c r="G231" s="1">
         <v>196</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
         <v>0</v>
       </c>
@@ -11307,14 +11306,14 @@
         <v>1.86</v>
       </c>
       <c r="F232" s="2">
-        <f>$B$1+E232</f>
+        <f t="shared" si="6"/>
         <v>7475.11</v>
       </c>
       <c r="G232" s="1">
         <v>181</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
         <v>0</v>
       </c>
@@ -11331,14 +11330,14 @@
         <v>1.86</v>
       </c>
       <c r="F233" s="2">
-        <f>$B$1+E233</f>
+        <f t="shared" si="6"/>
         <v>7475.11</v>
       </c>
       <c r="G233" s="1">
         <v>185</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>0</v>
       </c>
@@ -11355,14 +11354,14 @@
         <v>1.87</v>
       </c>
       <c r="F234" s="2">
-        <f>$B$1+E234</f>
+        <f t="shared" si="6"/>
         <v>7475.12</v>
       </c>
       <c r="G234" s="1">
         <v>189</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
         <v>0</v>
       </c>
@@ -11379,14 +11378,14 @@
         <v>1.87</v>
       </c>
       <c r="F235" s="2">
-        <f>$B$1+E235</f>
+        <f t="shared" si="6"/>
         <v>7475.12</v>
       </c>
       <c r="G235" s="1">
         <v>192</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>0</v>
       </c>
@@ -11403,14 +11402,14 @@
         <v>1.87</v>
       </c>
       <c r="F236" s="2">
-        <f>$B$1+E236</f>
+        <f t="shared" si="6"/>
         <v>7475.12</v>
       </c>
       <c r="G236" s="1">
         <v>187</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
         <v>0</v>
       </c>
@@ -11427,14 +11426,14 @@
         <v>1.87</v>
       </c>
       <c r="F237" s="2">
-        <f>$B$1+E237</f>
+        <f t="shared" si="6"/>
         <v>7475.12</v>
       </c>
       <c r="G237" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>0</v>
       </c>
@@ -11451,14 +11450,14 @@
         <v>1.88</v>
       </c>
       <c r="F238" s="2">
-        <f>$B$1+E238</f>
+        <f t="shared" si="6"/>
         <v>7475.13</v>
       </c>
       <c r="G238" s="1">
         <v>202</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
         <v>0</v>
       </c>
@@ -11475,14 +11474,14 @@
         <v>1.88</v>
       </c>
       <c r="F239" s="2">
-        <f>$B$1+E239</f>
+        <f t="shared" si="6"/>
         <v>7475.13</v>
       </c>
       <c r="G239" s="1">
         <v>182</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
         <v>0</v>
       </c>
@@ -11499,14 +11498,14 @@
         <v>1.88</v>
       </c>
       <c r="F240" s="2">
-        <f>$B$1+E240</f>
+        <f t="shared" si="6"/>
         <v>7475.13</v>
       </c>
       <c r="G240" s="1">
         <v>203</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>0</v>
       </c>
@@ -11523,14 +11522,14 @@
         <v>1.89</v>
       </c>
       <c r="F241" s="2">
-        <f>$B$1+E241</f>
+        <f t="shared" si="6"/>
         <v>7475.14</v>
       </c>
       <c r="G241" s="1">
         <v>189</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>0</v>
       </c>
@@ -11547,14 +11546,14 @@
         <v>1.89</v>
       </c>
       <c r="F242" s="2">
-        <f>$B$1+E242</f>
+        <f t="shared" si="6"/>
         <v>7475.14</v>
       </c>
       <c r="G242" s="1">
         <v>229</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
         <v>0</v>
       </c>
@@ -11571,14 +11570,14 @@
         <v>1.89</v>
       </c>
       <c r="F243" s="2">
-        <f>$B$1+E243</f>
+        <f t="shared" si="6"/>
         <v>7475.14</v>
       </c>
       <c r="G243" s="1">
         <v>212</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
         <v>0</v>
       </c>
@@ -11595,14 +11594,14 @@
         <v>1.9</v>
       </c>
       <c r="F244" s="2">
-        <f>$B$1+E244</f>
+        <f t="shared" si="6"/>
         <v>7475.15</v>
       </c>
       <c r="G244" s="1">
         <v>208</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
         <v>0</v>
       </c>
@@ -11619,14 +11618,14 @@
         <v>1.9</v>
       </c>
       <c r="F245" s="2">
-        <f>$B$1+E245</f>
+        <f t="shared" si="6"/>
         <v>7475.15</v>
       </c>
       <c r="G245" s="1">
         <v>205</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
         <v>0</v>
       </c>
@@ -11643,14 +11642,14 @@
         <v>1.9</v>
       </c>
       <c r="F246" s="2">
-        <f>$B$1+E246</f>
+        <f t="shared" si="6"/>
         <v>7475.15</v>
       </c>
       <c r="G246" s="1">
         <v>215</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
         <v>0</v>
       </c>
@@ -11667,14 +11666,14 @@
         <v>1.91</v>
       </c>
       <c r="F247" s="2">
-        <f>$B$1+E247</f>
+        <f t="shared" si="6"/>
         <v>7475.16</v>
       </c>
       <c r="G247" s="1">
         <v>184</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
         <v>0</v>
       </c>
@@ -11691,14 +11690,14 @@
         <v>1.91</v>
       </c>
       <c r="F248" s="2">
-        <f>$B$1+E248</f>
+        <f t="shared" si="6"/>
         <v>7475.16</v>
       </c>
       <c r="G248" s="1">
         <v>188</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
         <v>0</v>
       </c>
@@ -11715,14 +11714,14 @@
         <v>1.91</v>
       </c>
       <c r="F249" s="2">
-        <f>$B$1+E249</f>
+        <f t="shared" si="6"/>
         <v>7475.16</v>
       </c>
       <c r="G249" s="1">
         <v>212</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
         <v>0</v>
       </c>
@@ -11739,14 +11738,14 @@
         <v>1.91</v>
       </c>
       <c r="F250" s="2">
-        <f>$B$1+E250</f>
+        <f t="shared" si="6"/>
         <v>7475.16</v>
       </c>
       <c r="G250" s="1">
         <v>210</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
         <v>0</v>
       </c>
@@ -11763,14 +11762,14 @@
         <v>1.92</v>
       </c>
       <c r="F251" s="2">
-        <f>$B$1+E251</f>
+        <f t="shared" si="6"/>
         <v>7475.17</v>
       </c>
       <c r="G251" s="1">
         <v>207</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
         <v>0</v>
       </c>
@@ -11787,14 +11786,14 @@
         <v>1.92</v>
       </c>
       <c r="F252" s="2">
-        <f>$B$1+E252</f>
+        <f t="shared" si="6"/>
         <v>7475.17</v>
       </c>
       <c r="G252" s="1">
         <v>198</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
         <v>0</v>
       </c>
@@ -11811,14 +11810,14 @@
         <v>1.92</v>
       </c>
       <c r="F253" s="2">
-        <f>$B$1+E253</f>
+        <f t="shared" si="6"/>
         <v>7475.17</v>
       </c>
       <c r="G253" s="1">
         <v>185</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
         <v>0</v>
       </c>
@@ -11835,14 +11834,14 @@
         <v>1.93</v>
       </c>
       <c r="F254" s="2">
-        <f>$B$1+E254</f>
+        <f t="shared" si="6"/>
         <v>7475.18</v>
       </c>
       <c r="G254" s="1">
         <v>223</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
         <v>0</v>
       </c>
@@ -11859,14 +11858,14 @@
         <v>1.93</v>
       </c>
       <c r="F255" s="2">
-        <f>$B$1+E255</f>
+        <f t="shared" si="6"/>
         <v>7475.18</v>
       </c>
       <c r="G255" s="1">
         <v>205</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
         <v>0</v>
       </c>
@@ -11883,14 +11882,14 @@
         <v>1.93</v>
       </c>
       <c r="F256" s="2">
-        <f>$B$1+E256</f>
+        <f t="shared" si="6"/>
         <v>7475.18</v>
       </c>
       <c r="G256" s="1">
         <v>210</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
         <v>0</v>
       </c>
@@ -11907,14 +11906,14 @@
         <v>1.94</v>
       </c>
       <c r="F257" s="2">
-        <f>$B$1+E257</f>
+        <f t="shared" si="6"/>
         <v>7475.19</v>
       </c>
       <c r="G257" s="1">
         <v>214</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
         <v>0</v>
       </c>
@@ -11931,14 +11930,14 @@
         <v>1.94</v>
       </c>
       <c r="F258" s="2">
-        <f>$B$1+E258</f>
+        <f t="shared" si="6"/>
         <v>7475.19</v>
       </c>
       <c r="G258" s="1">
         <v>214</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
         <v>0</v>
       </c>
@@ -11955,14 +11954,14 @@
         <v>1.95</v>
       </c>
       <c r="F259" s="2">
-        <f>$B$1+E259</f>
+        <f t="shared" ref="F259:F322" si="7">$B$1+E259</f>
         <v>7475.2</v>
       </c>
       <c r="G259" s="1">
         <v>208</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
         <v>0</v>
       </c>
@@ -11979,14 +11978,14 @@
         <v>1.95</v>
       </c>
       <c r="F260" s="2">
-        <f>$B$1+E260</f>
+        <f t="shared" si="7"/>
         <v>7475.2</v>
       </c>
       <c r="G260" s="1">
         <v>205</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
         <v>0</v>
       </c>
@@ -12003,14 +12002,14 @@
         <v>1.95</v>
       </c>
       <c r="F261" s="2">
-        <f>$B$1+E261</f>
+        <f t="shared" si="7"/>
         <v>7475.2</v>
       </c>
       <c r="G261" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
         <v>0</v>
       </c>
@@ -12027,14 +12026,14 @@
         <v>1.95</v>
       </c>
       <c r="F262" s="2">
-        <f>$B$1+E262</f>
+        <f t="shared" si="7"/>
         <v>7475.2</v>
       </c>
       <c r="G262" s="1">
         <v>223</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
         <v>0</v>
       </c>
@@ -12051,14 +12050,14 @@
         <v>1.96</v>
       </c>
       <c r="F263" s="2">
-        <f>$B$1+E263</f>
+        <f t="shared" si="7"/>
         <v>7475.21</v>
       </c>
       <c r="G263" s="1">
         <v>213</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
         <v>0</v>
       </c>
@@ -12075,14 +12074,14 @@
         <v>1.96</v>
       </c>
       <c r="F264" s="2">
-        <f>$B$1+E264</f>
+        <f t="shared" si="7"/>
         <v>7475.21</v>
       </c>
       <c r="G264" s="1">
         <v>220</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
         <v>0</v>
       </c>
@@ -12099,14 +12098,14 @@
         <v>1.96</v>
       </c>
       <c r="F265" s="2">
-        <f>$B$1+E265</f>
+        <f t="shared" si="7"/>
         <v>7475.21</v>
       </c>
       <c r="G265" s="1">
         <v>225</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
         <v>0</v>
       </c>
@@ -12123,14 +12122,14 @@
         <v>1.97</v>
       </c>
       <c r="F266" s="2">
-        <f>$B$1+E266</f>
+        <f t="shared" si="7"/>
         <v>7475.22</v>
       </c>
       <c r="G266" s="1">
         <v>215</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
         <v>0</v>
       </c>
@@ -12147,14 +12146,14 @@
         <v>1.97</v>
       </c>
       <c r="F267" s="2">
-        <f>$B$1+E267</f>
+        <f t="shared" si="7"/>
         <v>7475.22</v>
       </c>
       <c r="G267" s="1">
         <v>218</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
         <v>0</v>
       </c>
@@ -12171,14 +12170,14 @@
         <v>1.98</v>
       </c>
       <c r="F268" s="2">
-        <f>$B$1+E268</f>
+        <f t="shared" si="7"/>
         <v>7475.23</v>
       </c>
       <c r="G268" s="1">
         <v>222</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
         <v>0</v>
       </c>
@@ -12195,14 +12194,14 @@
         <v>1.98</v>
       </c>
       <c r="F269" s="2">
-        <f>$B$1+E269</f>
+        <f t="shared" si="7"/>
         <v>7475.23</v>
       </c>
       <c r="G269" s="1">
         <v>206</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
         <v>0</v>
       </c>
@@ -12219,14 +12218,14 @@
         <v>1.98</v>
       </c>
       <c r="F270" s="2">
-        <f>$B$1+E270</f>
+        <f t="shared" si="7"/>
         <v>7475.23</v>
       </c>
       <c r="G270" s="1">
         <v>221</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="s">
         <v>0</v>
       </c>
@@ -12243,14 +12242,14 @@
         <v>1.98</v>
       </c>
       <c r="F271" s="2">
-        <f>$B$1+E271</f>
+        <f t="shared" si="7"/>
         <v>7475.23</v>
       </c>
       <c r="G271" s="1">
         <v>238</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
         <v>0</v>
       </c>
@@ -12267,14 +12266,14 @@
         <v>1.99</v>
       </c>
       <c r="F272" s="2">
-        <f>$B$1+E272</f>
+        <f t="shared" si="7"/>
         <v>7475.24</v>
       </c>
       <c r="G272" s="1">
         <v>253</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="s">
         <v>0</v>
       </c>
@@ -12291,14 +12290,14 @@
         <v>2</v>
       </c>
       <c r="F273" s="2">
-        <f>$B$1+E273</f>
+        <f t="shared" si="7"/>
         <v>7475.25</v>
       </c>
       <c r="G273" s="1">
         <v>241</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
         <v>0</v>
       </c>
@@ -12315,14 +12314,14 @@
         <v>2</v>
       </c>
       <c r="F274" s="2">
-        <f>$B$1+E274</f>
+        <f t="shared" si="7"/>
         <v>7475.25</v>
       </c>
       <c r="G274" s="1">
         <v>235</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
         <v>0</v>
       </c>
@@ -12339,14 +12338,14 @@
         <v>2</v>
       </c>
       <c r="F275" s="2">
-        <f>$B$1+E275</f>
+        <f t="shared" si="7"/>
         <v>7475.25</v>
       </c>
       <c r="G275" s="1">
         <v>218</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
         <v>0</v>
       </c>
@@ -12363,14 +12362,14 @@
         <v>2</v>
       </c>
       <c r="F276" s="2">
-        <f>$B$1+E276</f>
+        <f t="shared" si="7"/>
         <v>7475.25</v>
       </c>
       <c r="G276" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277" s="1" t="s">
         <v>0</v>
       </c>
@@ -12387,14 +12386,14 @@
         <v>2</v>
       </c>
       <c r="F277" s="2">
-        <f>$B$1+E277</f>
+        <f t="shared" si="7"/>
         <v>7475.25</v>
       </c>
       <c r="G277" s="1">
         <v>251</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
         <v>0</v>
       </c>
@@ -12411,14 +12410,14 @@
         <v>2.0099999999999998</v>
       </c>
       <c r="F278" s="2">
-        <f>$B$1+E278</f>
+        <f t="shared" si="7"/>
         <v>7475.26</v>
       </c>
       <c r="G278" s="1">
         <v>230</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279" s="1" t="s">
         <v>0</v>
       </c>
@@ -12435,14 +12434,14 @@
         <v>2.02</v>
       </c>
       <c r="F279" s="2">
-        <f>$B$1+E279</f>
+        <f t="shared" si="7"/>
         <v>7475.27</v>
       </c>
       <c r="G279" s="1">
         <v>228</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
         <v>0</v>
       </c>
@@ -12459,14 +12458,14 @@
         <v>2.02</v>
       </c>
       <c r="F280" s="2">
-        <f>$B$1+E280</f>
+        <f t="shared" si="7"/>
         <v>7475.27</v>
       </c>
       <c r="G280" s="1">
         <v>232</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">
         <v>0</v>
       </c>
@@ -12483,14 +12482,14 @@
         <v>2.02</v>
       </c>
       <c r="F281" s="2">
-        <f>$B$1+E281</f>
+        <f t="shared" si="7"/>
         <v>7475.27</v>
       </c>
       <c r="G281" s="1">
         <v>251</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
         <v>0</v>
       </c>
@@ -12507,14 +12506,14 @@
         <v>2.02</v>
       </c>
       <c r="F282" s="2">
-        <f>$B$1+E282</f>
+        <f t="shared" si="7"/>
         <v>7475.27</v>
       </c>
       <c r="G282" s="1">
         <v>228</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
         <v>0</v>
       </c>
@@ -12531,14 +12530,14 @@
         <v>2.02</v>
       </c>
       <c r="F283" s="2">
-        <f>$B$1+E283</f>
+        <f t="shared" si="7"/>
         <v>7475.27</v>
       </c>
       <c r="G283" s="1">
         <v>239</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
         <v>0</v>
       </c>
@@ -12555,14 +12554,14 @@
         <v>2.0299999999999998</v>
       </c>
       <c r="F284" s="2">
-        <f>$B$1+E284</f>
+        <f t="shared" si="7"/>
         <v>7475.28</v>
       </c>
       <c r="G284" s="1">
         <v>256</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="s">
         <v>0</v>
       </c>
@@ -12579,14 +12578,14 @@
         <v>2.0299999999999998</v>
       </c>
       <c r="F285" s="2">
-        <f>$B$1+E285</f>
+        <f t="shared" si="7"/>
         <v>7475.28</v>
       </c>
       <c r="G285" s="1">
         <v>253</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
         <v>0</v>
       </c>
@@ -12603,14 +12602,14 @@
         <v>2.0299999999999998</v>
       </c>
       <c r="F286" s="2">
-        <f>$B$1+E286</f>
+        <f t="shared" si="7"/>
         <v>7475.28</v>
       </c>
       <c r="G286" s="1">
         <v>252</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
         <v>0</v>
       </c>
@@ -12627,14 +12626,14 @@
         <v>2.04</v>
       </c>
       <c r="F287" s="2">
-        <f>$B$1+E287</f>
+        <f t="shared" si="7"/>
         <v>7475.29</v>
       </c>
       <c r="G287" s="1">
         <v>229</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
         <v>0</v>
       </c>
@@ -12651,14 +12650,14 @@
         <v>2.04</v>
       </c>
       <c r="F288" s="2">
-        <f>$B$1+E288</f>
+        <f t="shared" si="7"/>
         <v>7475.29</v>
       </c>
       <c r="G288" s="1">
         <v>232</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
         <v>0</v>
       </c>
@@ -12675,14 +12674,14 @@
         <v>2.04</v>
       </c>
       <c r="F289" s="2">
-        <f>$B$1+E289</f>
+        <f t="shared" si="7"/>
         <v>7475.29</v>
       </c>
       <c r="G289" s="1">
         <v>232</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
         <v>0</v>
       </c>
@@ -12699,14 +12698,14 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="F290" s="2">
-        <f>$B$1+E290</f>
+        <f t="shared" si="7"/>
         <v>7475.3</v>
       </c>
       <c r="G290" s="1">
         <v>229</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A291" s="1" t="s">
         <v>0</v>
       </c>
@@ -12723,14 +12722,14 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="F291" s="2">
-        <f>$B$1+E291</f>
+        <f t="shared" si="7"/>
         <v>7475.3</v>
       </c>
       <c r="G291" s="1">
         <v>277</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
         <v>0</v>
       </c>
@@ -12747,14 +12746,14 @@
         <v>2.06</v>
       </c>
       <c r="F292" s="2">
-        <f>$B$1+E292</f>
+        <f t="shared" si="7"/>
         <v>7475.31</v>
       </c>
       <c r="G292" s="1">
         <v>284</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A293" s="1" t="s">
         <v>0</v>
       </c>
@@ -12771,14 +12770,14 @@
         <v>2.0699999999999998</v>
       </c>
       <c r="F293" s="2">
-        <f>$B$1+E293</f>
+        <f t="shared" si="7"/>
         <v>7475.32</v>
       </c>
       <c r="G293" s="1">
         <v>240</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="s">
         <v>0</v>
       </c>
@@ -12795,14 +12794,14 @@
         <v>2.08</v>
       </c>
       <c r="F294" s="2">
-        <f>$B$1+E294</f>
+        <f t="shared" si="7"/>
         <v>7475.33</v>
       </c>
       <c r="G294" s="1">
         <v>257</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A295" s="1" t="s">
         <v>0</v>
       </c>
@@ -12819,14 +12818,14 @@
         <v>2.08</v>
       </c>
       <c r="F295" s="2">
-        <f>$B$1+E295</f>
+        <f t="shared" si="7"/>
         <v>7475.33</v>
       </c>
       <c r="G295" s="1">
         <v>271</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
         <v>0</v>
       </c>
@@ -12843,14 +12842,14 @@
         <v>2.08</v>
       </c>
       <c r="F296" s="2">
-        <f>$B$1+E296</f>
+        <f t="shared" si="7"/>
         <v>7475.33</v>
       </c>
       <c r="G296" s="1">
         <v>270</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A297" s="1" t="s">
         <v>0</v>
       </c>
@@ -12867,14 +12866,14 @@
         <v>2.08</v>
       </c>
       <c r="F297" s="2">
-        <f>$B$1+E297</f>
+        <f t="shared" si="7"/>
         <v>7475.33</v>
       </c>
       <c r="G297" s="1">
         <v>271</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
         <v>0</v>
       </c>
@@ -12891,14 +12890,14 @@
         <v>2.09</v>
       </c>
       <c r="F298" s="2">
-        <f>$B$1+E298</f>
+        <f t="shared" si="7"/>
         <v>7475.34</v>
       </c>
       <c r="G298" s="1">
         <v>274</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A299" s="1" t="s">
         <v>0</v>
       </c>
@@ -12915,14 +12914,14 @@
         <v>2.09</v>
       </c>
       <c r="F299" s="2">
-        <f>$B$1+E299</f>
+        <f t="shared" si="7"/>
         <v>7475.34</v>
       </c>
       <c r="G299" s="1">
         <v>259</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A300" s="1" t="s">
         <v>0</v>
       </c>
@@ -12939,14 +12938,14 @@
         <v>2.09</v>
       </c>
       <c r="F300" s="2">
-        <f>$B$1+E300</f>
+        <f t="shared" si="7"/>
         <v>7475.34</v>
       </c>
       <c r="G300" s="1">
         <v>280</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A301" s="1" t="s">
         <v>0</v>
       </c>
@@ -12963,14 +12962,14 @@
         <v>2.11</v>
       </c>
       <c r="F301" s="2">
-        <f>$B$1+E301</f>
+        <f t="shared" si="7"/>
         <v>7475.36</v>
       </c>
       <c r="G301" s="1">
         <v>255</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
         <v>0</v>
       </c>
@@ -12987,14 +12986,14 @@
         <v>2.12</v>
       </c>
       <c r="F302" s="2">
-        <f>$B$1+E302</f>
+        <f t="shared" si="7"/>
         <v>7475.37</v>
       </c>
       <c r="G302" s="1">
         <v>253</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A303" s="1" t="s">
         <v>0</v>
       </c>
@@ -13011,14 +13010,14 @@
         <v>2.13</v>
       </c>
       <c r="F303" s="2">
-        <f>$B$1+E303</f>
+        <f t="shared" si="7"/>
         <v>7475.38</v>
       </c>
       <c r="G303" s="1">
         <v>290</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
         <v>0</v>
       </c>
@@ -13035,14 +13034,14 @@
         <v>2.14</v>
       </c>
       <c r="F304" s="2">
-        <f>$B$1+E304</f>
+        <f t="shared" si="7"/>
         <v>7475.39</v>
       </c>
       <c r="G304" s="1">
         <v>293</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A305" s="1" t="s">
         <v>0</v>
       </c>
@@ -13059,14 +13058,14 @@
         <v>2.15</v>
       </c>
       <c r="F305" s="2">
-        <f>$B$1+E305</f>
+        <f t="shared" si="7"/>
         <v>7475.4</v>
       </c>
       <c r="G305" s="1">
         <v>285</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A306" s="1" t="s">
         <v>0</v>
       </c>
@@ -13083,14 +13082,14 @@
         <v>2.15</v>
       </c>
       <c r="F306" s="2">
-        <f>$B$1+E306</f>
+        <f t="shared" si="7"/>
         <v>7475.4</v>
       </c>
       <c r="G306" s="1">
         <v>313</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A307" s="1" t="s">
         <v>0</v>
       </c>
@@ -13107,14 +13106,14 @@
         <v>2.15</v>
       </c>
       <c r="F307" s="2">
-        <f>$B$1+E307</f>
+        <f t="shared" si="7"/>
         <v>7475.4</v>
       </c>
       <c r="G307" s="1">
         <v>303</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A308" s="1" t="s">
         <v>0</v>
       </c>
@@ -13131,14 +13130,14 @@
         <v>2.16</v>
       </c>
       <c r="F308" s="2">
-        <f>$B$1+E308</f>
+        <f t="shared" si="7"/>
         <v>7475.41</v>
       </c>
       <c r="G308" s="1">
         <v>282</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A309" s="1" t="s">
         <v>0</v>
       </c>
@@ -13155,14 +13154,14 @@
         <v>2.17</v>
       </c>
       <c r="F309" s="2">
-        <f>$B$1+E309</f>
+        <f t="shared" si="7"/>
         <v>7475.42</v>
       </c>
       <c r="G309" s="1">
         <v>279</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
         <v>0</v>
       </c>
@@ -13179,14 +13178,14 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="F310" s="2">
-        <f>$B$1+E310</f>
+        <f t="shared" si="7"/>
         <v>7475.43</v>
       </c>
       <c r="G310" s="1">
         <v>273</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A311" s="1" t="s">
         <v>0</v>
       </c>
@@ -13203,14 +13202,14 @@
         <v>2.19</v>
       </c>
       <c r="F311" s="2">
-        <f>$B$1+E311</f>
+        <f t="shared" si="7"/>
         <v>7475.44</v>
       </c>
       <c r="G311" s="1">
         <v>317</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="s">
         <v>0</v>
       </c>
@@ -13227,14 +13226,14 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="F312" s="2">
-        <f>$B$1+E312</f>
+        <f t="shared" si="7"/>
         <v>7475.45</v>
       </c>
       <c r="G312" s="1">
         <v>329</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A313" s="1" t="s">
         <v>0</v>
       </c>
@@ -13251,14 +13250,14 @@
         <v>2.21</v>
       </c>
       <c r="F313" s="2">
-        <f>$B$1+E313</f>
+        <f t="shared" si="7"/>
         <v>7475.46</v>
       </c>
       <c r="G313" s="1">
         <v>291</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A314" s="1" t="s">
         <v>0</v>
       </c>
@@ -13275,14 +13274,14 @@
         <v>2.2400000000000002</v>
       </c>
       <c r="F314" s="2">
-        <f>$B$1+E314</f>
+        <f t="shared" si="7"/>
         <v>7475.49</v>
       </c>
       <c r="G314" s="1">
         <v>333</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A315" s="1" t="s">
         <v>0</v>
       </c>
@@ -13299,14 +13298,14 @@
         <v>2.2400000000000002</v>
       </c>
       <c r="F315" s="2">
-        <f>$B$1+E315</f>
+        <f t="shared" si="7"/>
         <v>7475.49</v>
       </c>
       <c r="G315" s="1">
         <v>318</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A316" s="1" t="s">
         <v>0</v>
       </c>
@@ -13323,14 +13322,14 @@
         <v>2.2400000000000002</v>
       </c>
       <c r="F316" s="2">
-        <f>$B$1+E316</f>
+        <f t="shared" si="7"/>
         <v>7475.49</v>
       </c>
       <c r="G316" s="1">
         <v>327</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A317" s="1" t="s">
         <v>0</v>
       </c>
@@ -13347,14 +13346,14 @@
         <v>2.25</v>
       </c>
       <c r="F317" s="2">
-        <f>$B$1+E317</f>
+        <f t="shared" si="7"/>
         <v>7475.5</v>
       </c>
       <c r="G317" s="1">
         <v>313</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A318" s="1" t="s">
         <v>0</v>
       </c>
@@ -13371,14 +13370,14 @@
         <v>2.2599999999999998</v>
       </c>
       <c r="F318" s="2">
-        <f>$B$1+E318</f>
+        <f t="shared" si="7"/>
         <v>7475.51</v>
       </c>
       <c r="G318" s="1">
         <v>352</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A319" s="1" t="s">
         <v>0</v>
       </c>
@@ -13395,14 +13394,14 @@
         <v>2.27</v>
       </c>
       <c r="F319" s="2">
-        <f>$B$1+E319</f>
+        <f t="shared" si="7"/>
         <v>7475.52</v>
       </c>
       <c r="G319" s="1">
         <v>324</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A320" s="1" t="s">
         <v>0</v>
       </c>
@@ -13419,14 +13418,14 @@
         <v>2.27</v>
       </c>
       <c r="F320" s="2">
-        <f>$B$1+E320</f>
+        <f t="shared" si="7"/>
         <v>7475.52</v>
       </c>
       <c r="G320" s="1">
         <v>329</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A321" s="1" t="s">
         <v>0</v>
       </c>
@@ -13443,14 +13442,14 @@
         <v>2.2799999999999998</v>
       </c>
       <c r="F321" s="2">
-        <f>$B$1+E321</f>
+        <f t="shared" si="7"/>
         <v>7475.53</v>
       </c>
       <c r="G321" s="1">
         <v>324</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
         <v>0</v>
       </c>
@@ -13467,14 +13466,14 @@
         <v>2.2799999999999998</v>
       </c>
       <c r="F322" s="2">
-        <f>$B$1+E322</f>
+        <f t="shared" si="7"/>
         <v>7475.53</v>
       </c>
       <c r="G322" s="1">
         <v>342</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A323" s="1" t="s">
         <v>0</v>
       </c>
@@ -13491,14 +13490,14 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="F323" s="2">
-        <f>$B$1+E323</f>
+        <f t="shared" ref="F323:F386" si="8">$B$1+E323</f>
         <v>7475.55</v>
       </c>
       <c r="G323" s="1">
         <v>342</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A324" s="1" t="s">
         <v>0</v>
       </c>
@@ -13515,14 +13514,14 @@
         <v>2.31</v>
       </c>
       <c r="F324" s="2">
-        <f>$B$1+E324</f>
+        <f t="shared" si="8"/>
         <v>7475.56</v>
       </c>
       <c r="G324" s="1">
         <v>390</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A325" s="1" t="s">
         <v>0</v>
       </c>
@@ -13539,14 +13538,14 @@
         <v>2.3199999999999998</v>
       </c>
       <c r="F325" s="2">
-        <f>$B$1+E325</f>
+        <f t="shared" si="8"/>
         <v>7475.57</v>
       </c>
       <c r="G325" s="1">
         <v>340</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A326" s="1" t="s">
         <v>0</v>
       </c>
@@ -13563,14 +13562,14 @@
         <v>2.36</v>
       </c>
       <c r="F326" s="2">
-        <f>$B$1+E326</f>
+        <f t="shared" si="8"/>
         <v>7475.61</v>
       </c>
       <c r="G326" s="1">
         <v>351</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A327" s="1" t="s">
         <v>0</v>
       </c>
@@ -13587,14 +13586,14 @@
         <v>2.37</v>
       </c>
       <c r="F327" s="2">
-        <f>$B$1+E327</f>
+        <f t="shared" si="8"/>
         <v>7475.62</v>
       </c>
       <c r="G327" s="1">
         <v>407</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A328" s="1" t="s">
         <v>0</v>
       </c>
@@ -13611,14 +13610,14 @@
         <v>2.4</v>
       </c>
       <c r="F328" s="2">
-        <f>$B$1+E328</f>
+        <f t="shared" si="8"/>
         <v>7475.65</v>
       </c>
       <c r="G328" s="1">
         <v>379</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A329" s="1" t="s">
         <v>0</v>
       </c>
@@ -13635,14 +13634,14 @@
         <v>2.42</v>
       </c>
       <c r="F329" s="2">
-        <f>$B$1+E329</f>
+        <f t="shared" si="8"/>
         <v>7475.67</v>
       </c>
       <c r="G329" s="1">
         <v>408</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="s">
         <v>0</v>
       </c>
@@ -13659,14 +13658,14 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="F330" s="2">
-        <f>$B$1+E330</f>
+        <f t="shared" si="8"/>
         <v>7475.68</v>
       </c>
       <c r="G330" s="1">
         <v>434</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A331" s="1" t="s">
         <v>0</v>
       </c>
@@ -13683,14 +13682,14 @@
         <v>2.4500000000000002</v>
       </c>
       <c r="F331" s="2">
-        <f>$B$1+E331</f>
+        <f t="shared" si="8"/>
         <v>7475.7</v>
       </c>
       <c r="G331" s="1">
         <v>439</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A332" s="1" t="s">
         <v>0</v>
       </c>
@@ -13707,14 +13706,14 @@
         <v>2.46</v>
       </c>
       <c r="F332" s="2">
-        <f>$B$1+E332</f>
+        <f t="shared" si="8"/>
         <v>7475.71</v>
       </c>
       <c r="G332" s="1">
         <v>411</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A333" s="1" t="s">
         <v>0</v>
       </c>
@@ -13731,14 +13730,14 @@
         <v>2.46</v>
       </c>
       <c r="F333" s="2">
-        <f>$B$1+E333</f>
+        <f t="shared" si="8"/>
         <v>7475.71</v>
       </c>
       <c r="G333" s="1">
         <v>394</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A334" s="1" t="s">
         <v>0</v>
       </c>
@@ -13755,14 +13754,14 @@
         <v>2.4700000000000002</v>
       </c>
       <c r="F334" s="2">
-        <f>$B$1+E334</f>
+        <f t="shared" si="8"/>
         <v>7475.72</v>
       </c>
       <c r="G334" s="1">
         <v>425</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A335" s="1" t="s">
         <v>0</v>
       </c>
@@ -13779,14 +13778,14 @@
         <v>2.4700000000000002</v>
       </c>
       <c r="F335" s="2">
-        <f>$B$1+E335</f>
+        <f t="shared" si="8"/>
         <v>7475.72</v>
       </c>
       <c r="G335" s="1">
         <v>421</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A336" s="1" t="s">
         <v>0</v>
       </c>
@@ -13803,14 +13802,14 @@
         <v>2.52</v>
       </c>
       <c r="F336" s="2">
-        <f>$B$1+E336</f>
+        <f t="shared" si="8"/>
         <v>7475.77</v>
       </c>
       <c r="G336" s="1">
         <v>429</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A337" s="1" t="s">
         <v>0</v>
       </c>
@@ -13827,14 +13826,14 @@
         <v>2.54</v>
       </c>
       <c r="F337" s="2">
-        <f>$B$1+E337</f>
+        <f t="shared" si="8"/>
         <v>7475.79</v>
       </c>
       <c r="G337" s="1">
         <v>446</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A338" s="1" t="s">
         <v>0</v>
       </c>
@@ -13851,14 +13850,14 @@
         <v>2.54</v>
       </c>
       <c r="F338" s="2">
-        <f>$B$1+E338</f>
+        <f t="shared" si="8"/>
         <v>7475.79</v>
       </c>
       <c r="G338" s="1">
         <v>450</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A339" s="1" t="s">
         <v>0</v>
       </c>
@@ -13875,14 +13874,14 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="F339" s="2">
-        <f>$B$1+E339</f>
+        <f t="shared" si="8"/>
         <v>7475.8</v>
       </c>
       <c r="G339" s="1">
         <v>446</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A340" s="1" t="s">
         <v>0</v>
       </c>
@@ -13899,14 +13898,14 @@
         <v>2.59</v>
       </c>
       <c r="F340" s="2">
-        <f>$B$1+E340</f>
+        <f t="shared" si="8"/>
         <v>7475.84</v>
       </c>
       <c r="G340" s="1">
         <v>549</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A341" s="1" t="s">
         <v>0</v>
       </c>
@@ -13923,14 +13922,14 @@
         <v>2.62</v>
       </c>
       <c r="F341" s="2">
-        <f>$B$1+E341</f>
+        <f t="shared" si="8"/>
         <v>7475.87</v>
       </c>
       <c r="G341" s="1">
         <v>529</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="s">
         <v>0</v>
       </c>
@@ -13947,14 +13946,14 @@
         <v>2.63</v>
       </c>
       <c r="F342" s="2">
-        <f>$B$1+E342</f>
+        <f t="shared" si="8"/>
         <v>7475.88</v>
       </c>
       <c r="G342" s="1">
         <v>804</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A343" s="1" t="s">
         <v>0</v>
       </c>
@@ -13971,14 +13970,14 @@
         <v>2.64</v>
       </c>
       <c r="F343" s="2">
-        <f>$B$1+E343</f>
+        <f t="shared" si="8"/>
         <v>7475.89</v>
       </c>
       <c r="G343" s="1">
         <v>481</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A344" s="1" t="s">
         <v>0</v>
       </c>
@@ -13995,14 +13994,14 @@
         <v>2.65</v>
       </c>
       <c r="F344" s="2">
-        <f>$B$1+E344</f>
+        <f t="shared" si="8"/>
         <v>7475.9</v>
       </c>
       <c r="G344" s="1">
         <v>756</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A345" s="1" t="s">
         <v>0</v>
       </c>
@@ -14019,14 +14018,14 @@
         <v>2.67</v>
       </c>
       <c r="F345" s="2">
-        <f>$B$1+E345</f>
+        <f t="shared" si="8"/>
         <v>7475.92</v>
       </c>
       <c r="G345" s="1">
         <v>554</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A346" s="1" t="s">
         <v>0</v>
       </c>
@@ -14043,14 +14042,14 @@
         <v>2.67</v>
       </c>
       <c r="F346" s="2">
-        <f>$B$1+E346</f>
+        <f t="shared" si="8"/>
         <v>7475.92</v>
       </c>
       <c r="G346" s="1">
         <v>551</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A347" s="1" t="s">
         <v>0</v>
       </c>
@@ -14067,14 +14066,14 @@
         <v>2.7</v>
       </c>
       <c r="F347" s="2">
-        <f>$B$1+E347</f>
+        <f t="shared" si="8"/>
         <v>7475.95</v>
       </c>
       <c r="G347" s="1">
         <v>518</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A348" s="1" t="s">
         <v>0</v>
       </c>
@@ -14091,14 +14090,14 @@
         <v>2.73</v>
       </c>
       <c r="F348" s="2">
-        <f>$B$1+E348</f>
+        <f t="shared" si="8"/>
         <v>7475.98</v>
       </c>
       <c r="G348" s="1">
         <v>626</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A349" s="1" t="s">
         <v>0</v>
       </c>
@@ -14115,14 +14114,14 @@
         <v>2.76</v>
       </c>
       <c r="F349" s="2">
-        <f>$B$1+E349</f>
+        <f t="shared" si="8"/>
         <v>7476.01</v>
       </c>
       <c r="G349" s="1">
         <v>611</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A350" s="1" t="s">
         <v>0</v>
       </c>
@@ -14139,14 +14138,14 @@
         <v>2.77</v>
       </c>
       <c r="F350" s="2">
-        <f>$B$1+E350</f>
+        <f t="shared" si="8"/>
         <v>7476.02</v>
       </c>
       <c r="G350" s="1">
         <v>645</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A351" s="1" t="s">
         <v>0</v>
       </c>
@@ -14163,14 +14162,14 @@
         <v>2.79</v>
       </c>
       <c r="F351" s="2">
-        <f>$B$1+E351</f>
+        <f t="shared" si="8"/>
         <v>7476.04</v>
       </c>
       <c r="G351" s="1">
         <v>621</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A352" s="1" t="s">
         <v>0</v>
       </c>
@@ -14187,14 +14186,14 @@
         <v>2.83</v>
       </c>
       <c r="F352" s="2">
-        <f>$B$1+E352</f>
+        <f t="shared" si="8"/>
         <v>7476.08</v>
       </c>
       <c r="G352" s="1">
         <v>603</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A353" s="1" t="s">
         <v>0</v>
       </c>
@@ -14211,14 +14210,14 @@
         <v>2.85</v>
       </c>
       <c r="F353" s="2">
-        <f>$B$1+E353</f>
+        <f t="shared" si="8"/>
         <v>7476.1</v>
       </c>
       <c r="G353" s="1">
         <v>949</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A354" s="1" t="s">
         <v>0</v>
       </c>
@@ -14235,14 +14234,14 @@
         <v>2.85</v>
       </c>
       <c r="F354" s="2">
-        <f>$B$1+E354</f>
+        <f t="shared" si="8"/>
         <v>7476.1</v>
       </c>
       <c r="G354" s="1">
         <v>651</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A355" s="1" t="s">
         <v>0</v>
       </c>
@@ -14259,14 +14258,14 @@
         <v>2.88</v>
       </c>
       <c r="F355" s="2">
-        <f>$B$1+E355</f>
+        <f t="shared" si="8"/>
         <v>7476.13</v>
       </c>
       <c r="G355" s="1">
         <v>691</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A356" s="1" t="s">
         <v>0</v>
       </c>
@@ -14283,14 +14282,14 @@
         <v>2.93</v>
       </c>
       <c r="F356" s="2">
-        <f>$B$1+E356</f>
+        <f t="shared" si="8"/>
         <v>7476.18</v>
       </c>
       <c r="G356" s="1">
         <v>625</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A357" s="1" t="s">
         <v>0</v>
       </c>
@@ -14307,14 +14306,14 @@
         <v>2.93</v>
       </c>
       <c r="F357" s="2">
-        <f>$B$1+E357</f>
+        <f t="shared" si="8"/>
         <v>7476.18</v>
       </c>
       <c r="G357" s="1">
         <v>648</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A358" s="1" t="s">
         <v>0</v>
       </c>
@@ -14331,14 +14330,14 @@
         <v>2.95</v>
       </c>
       <c r="F358" s="2">
-        <f>$B$1+E358</f>
+        <f t="shared" si="8"/>
         <v>7476.2</v>
       </c>
       <c r="G358" s="1">
         <v>687</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A359" s="1" t="s">
         <v>0</v>
       </c>
@@ -14355,14 +14354,14 @@
         <v>2.96</v>
       </c>
       <c r="F359" s="2">
-        <f>$B$1+E359</f>
+        <f t="shared" si="8"/>
         <v>7476.21</v>
       </c>
       <c r="G359" s="1">
         <v>693</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A360" s="1" t="s">
         <v>0</v>
       </c>
@@ -14379,14 +14378,14 @@
         <v>3</v>
       </c>
       <c r="F360" s="2">
-        <f>$B$1+E360</f>
+        <f t="shared" si="8"/>
         <v>7476.25</v>
       </c>
       <c r="G360" s="1">
         <v>632</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A361" s="1" t="s">
         <v>0</v>
       </c>
@@ -14403,14 +14402,14 @@
         <v>3.02</v>
       </c>
       <c r="F361" s="2">
-        <f>$B$1+E361</f>
+        <f t="shared" si="8"/>
         <v>7476.27</v>
       </c>
       <c r="G361" s="1">
         <v>733</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A362" s="1" t="s">
         <v>0</v>
       </c>
@@ -14427,14 +14426,14 @@
         <v>3.04</v>
       </c>
       <c r="F362" s="2">
-        <f>$B$1+E362</f>
+        <f t="shared" si="8"/>
         <v>7476.29</v>
       </c>
       <c r="G362" s="1">
         <v>739</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A363" s="1" t="s">
         <v>0</v>
       </c>
@@ -14451,14 +14450,14 @@
         <v>3.07</v>
       </c>
       <c r="F363" s="2">
-        <f>$B$1+E363</f>
+        <f t="shared" si="8"/>
         <v>7476.32</v>
       </c>
       <c r="G363" s="1">
         <v>730</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A364" s="1" t="s">
         <v>0</v>
       </c>
@@ -14475,14 +14474,14 @@
         <v>3.08</v>
       </c>
       <c r="F364" s="2">
-        <f>$B$1+E364</f>
+        <f t="shared" si="8"/>
         <v>7476.33</v>
       </c>
       <c r="G364" s="1">
         <v>702</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A365" s="1" t="s">
         <v>0</v>
       </c>
@@ -14499,14 +14498,14 @@
         <v>3.08</v>
       </c>
       <c r="F365" s="2">
-        <f>$B$1+E365</f>
+        <f t="shared" si="8"/>
         <v>7476.33</v>
       </c>
       <c r="G365" s="1">
         <v>734</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A366" s="1" t="s">
         <v>0</v>
       </c>
@@ -14523,14 +14522,14 @@
         <v>3.08</v>
       </c>
       <c r="F366" s="2">
-        <f>$B$1+E366</f>
+        <f t="shared" si="8"/>
         <v>7476.33</v>
       </c>
       <c r="G366" s="1">
         <v>733</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A367" s="1" t="s">
         <v>0</v>
       </c>
@@ -14547,14 +14546,14 @@
         <v>3.13</v>
       </c>
       <c r="F367" s="2">
-        <f>$B$1+E367</f>
+        <f t="shared" si="8"/>
         <v>7476.38</v>
       </c>
       <c r="G367" s="1">
         <v>854</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A368" s="1" t="s">
         <v>0</v>
       </c>
@@ -14571,14 +14570,14 @@
         <v>3.17</v>
       </c>
       <c r="F368" s="2">
-        <f>$B$1+E368</f>
+        <f t="shared" si="8"/>
         <v>7476.42</v>
       </c>
       <c r="G368" s="1">
         <v>782</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A369" s="1" t="s">
         <v>0</v>
       </c>
@@ -14595,14 +14594,14 @@
         <v>3.19</v>
       </c>
       <c r="F369" s="2">
-        <f>$B$1+E369</f>
+        <f t="shared" si="8"/>
         <v>7476.44</v>
       </c>
       <c r="G369" s="1">
         <v>839</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A370" s="1" t="s">
         <v>0</v>
       </c>
@@ -14619,14 +14618,14 @@
         <v>3.36</v>
       </c>
       <c r="F370" s="2">
-        <f>$B$1+E370</f>
+        <f t="shared" si="8"/>
         <v>7476.61</v>
       </c>
       <c r="G370" s="1">
         <v>939</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A371" s="1" t="s">
         <v>0</v>
       </c>
@@ -14643,14 +14642,14 @@
         <v>3.39</v>
       </c>
       <c r="F371" s="2">
-        <f>$B$1+E371</f>
+        <f t="shared" si="8"/>
         <v>7476.64</v>
       </c>
       <c r="G371" s="1">
         <v>1060</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A372" s="1" t="s">
         <v>0</v>
       </c>
@@ -14667,14 +14666,14 @@
         <v>3.4</v>
       </c>
       <c r="F372" s="2">
-        <f>$B$1+E372</f>
+        <f t="shared" si="8"/>
         <v>7476.65</v>
       </c>
       <c r="G372" s="1">
         <v>990</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A373" s="1" t="s">
         <v>0</v>
       </c>
@@ -14691,7 +14690,7 @@
         <v>3.46</v>
       </c>
       <c r="F373" s="2">
-        <f>$B$1+E373</f>
+        <f t="shared" si="8"/>
         <v>7476.71</v>
       </c>
       <c r="G373" s="1">
@@ -14713,12 +14712,12 @@
       <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -14735,7 +14734,7 @@
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -14770,7 +14769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>7553</v>
       </c>
@@ -14805,7 +14804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>7560</v>
       </c>
@@ -14840,7 +14839,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>7580</v>
       </c>
@@ -14875,7 +14874,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>7600</v>
       </c>
@@ -14910,7 +14909,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7620</v>
       </c>
@@ -14945,7 +14944,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7640</v>
       </c>
@@ -14980,7 +14979,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7660</v>
       </c>
@@ -15015,7 +15014,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7680</v>
       </c>
@@ -15050,7 +15049,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7700</v>
       </c>
@@ -15085,7 +15084,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>7720</v>
       </c>
@@ -15120,7 +15119,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>7740</v>
       </c>
@@ -15155,7 +15154,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>7760</v>
       </c>
@@ -15190,7 +15189,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>7766</v>
       </c>
@@ -15236,20 +15235,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8424C093-29A9-40E6-9FC2-685846B17EDA}">
-  <dimension ref="A1:Q71"/>
+  <dimension ref="A1:Q81"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65:C71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C81" sqref="A2:C81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -15293,7 +15291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -15337,7 +15335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.1</v>
       </c>
@@ -15381,7 +15379,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.1</v>
       </c>
@@ -15425,7 +15423,7 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.1</v>
       </c>
@@ -15469,7 +15467,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.1</v>
       </c>
@@ -15513,7 +15511,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.1</v>
       </c>
@@ -15557,7 +15555,7 @@
         <v>2395</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.1</v>
       </c>
@@ -15601,822 +15599,950 @@
         <v>2525</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
+        <v>0.1</v>
+      </c>
+      <c r="B9">
+        <v>7810</v>
+      </c>
+      <c r="C9">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10">
         <f>A2+0.1</f>
         <v>0.2</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <f>B2</f>
         <v>7540</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <f t="shared" ref="A10:A73" si="0">A3+0.1</f>
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f>A3+0.1</f>
         <v>0.2</v>
       </c>
-      <c r="B10">
-        <f t="shared" ref="B10:B73" si="1">B3</f>
+      <c r="B11">
+        <f>B3</f>
         <v>7580</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>360</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <f t="shared" si="0"/>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f>A4+0.1</f>
         <v>0.2</v>
       </c>
-      <c r="B11">
-        <f t="shared" si="1"/>
+      <c r="B12">
+        <f>B4</f>
         <v>7620</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>435</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <f t="shared" si="0"/>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f>A5+0.1</f>
         <v>0.2</v>
       </c>
-      <c r="B12">
-        <f t="shared" si="1"/>
+      <c r="B13">
+        <f>B5</f>
         <v>7660</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>508</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <f t="shared" si="0"/>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f>A6+0.1</f>
         <v>0.2</v>
       </c>
-      <c r="B13">
-        <f t="shared" si="1"/>
+      <c r="B14">
+        <f>B6</f>
         <v>7700</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>565</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <f t="shared" si="0"/>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f>A7+0.1</f>
         <v>0.2</v>
       </c>
-      <c r="B14">
-        <f t="shared" si="1"/>
+      <c r="B15">
+        <f>B7</f>
         <v>7740</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>625</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <f t="shared" si="0"/>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f>A8+0.1</f>
         <v>0.2</v>
       </c>
-      <c r="B15">
-        <f t="shared" si="1"/>
+      <c r="B16">
+        <f>B8</f>
         <v>7766</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>600</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <f t="shared" si="0"/>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f>A9+0.1</f>
+        <v>0.2</v>
+      </c>
+      <c r="B17">
+        <f>B9</f>
+        <v>7810</v>
+      </c>
+      <c r="C17">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f>A10+0.1</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="B16">
-        <f t="shared" si="1"/>
+      <c r="B18">
+        <f>B10</f>
         <v>7540</v>
       </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <f t="shared" si="0"/>
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f>A11+0.1</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="B17">
-        <f t="shared" si="1"/>
+      <c r="B19">
+        <f>B11</f>
         <v>7580</v>
       </c>
-      <c r="C17">
+      <c r="C19">
         <v>525</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <f t="shared" si="0"/>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f>A12+0.1</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="B18">
-        <f t="shared" si="1"/>
+      <c r="B20">
+        <f>B12</f>
         <v>7620</v>
       </c>
-      <c r="C18">
+      <c r="C20">
         <v>640</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <f t="shared" si="0"/>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f>A13+0.1</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="B19">
-        <f t="shared" si="1"/>
+      <c r="B21">
+        <f>B13</f>
         <v>7660</v>
       </c>
-      <c r="C19">
+      <c r="C21">
         <v>740</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <f t="shared" si="0"/>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f>A14+0.1</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="B20">
-        <f t="shared" si="1"/>
+      <c r="B22">
+        <f>B14</f>
         <v>7700</v>
       </c>
-      <c r="C20">
+      <c r="C22">
         <v>835</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <f t="shared" si="0"/>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f>A15+0.1</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="B21">
-        <f t="shared" si="1"/>
+      <c r="B23">
+        <f>B15</f>
         <v>7740</v>
       </c>
-      <c r="C21">
+      <c r="C23">
         <v>910</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <f t="shared" si="0"/>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f>A16+0.1</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="B22">
-        <f t="shared" si="1"/>
+      <c r="B24">
+        <f>B16</f>
         <v>7766</v>
       </c>
-      <c r="C22">
+      <c r="C24">
         <v>960</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <f t="shared" si="0"/>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f>A17+0.1</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="B25">
+        <f>B17</f>
+        <v>7810</v>
+      </c>
+      <c r="C25">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f>A18+0.1</f>
         <v>0.4</v>
       </c>
-      <c r="B23">
-        <f t="shared" si="1"/>
+      <c r="B26">
+        <f>B18</f>
         <v>7540</v>
       </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <f t="shared" si="0"/>
+      <c r="C26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f>A19+0.1</f>
         <v>0.4</v>
       </c>
-      <c r="B24">
-        <f t="shared" si="1"/>
+      <c r="B27">
+        <f>B19</f>
         <v>7580</v>
       </c>
-      <c r="C24">
+      <c r="C27">
         <v>650</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <f t="shared" si="0"/>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f>A20+0.1</f>
         <v>0.4</v>
       </c>
-      <c r="B25">
-        <f t="shared" si="1"/>
+      <c r="B28">
+        <f>B20</f>
         <v>7620</v>
       </c>
-      <c r="C25">
+      <c r="C28">
         <v>830</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <f t="shared" si="0"/>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f>A21+0.1</f>
         <v>0.4</v>
       </c>
-      <c r="B26">
-        <f t="shared" si="1"/>
+      <c r="B29">
+        <f>B21</f>
         <v>7660</v>
       </c>
-      <c r="C26">
+      <c r="C29">
         <v>965</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <f t="shared" si="0"/>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f>A22+0.1</f>
         <v>0.4</v>
       </c>
-      <c r="B27">
-        <f t="shared" si="1"/>
+      <c r="B30">
+        <f>B22</f>
         <v>7700</v>
       </c>
-      <c r="C27">
+      <c r="C30">
         <v>1075</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <f t="shared" si="0"/>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f>A23+0.1</f>
         <v>0.4</v>
       </c>
-      <c r="B28">
-        <f t="shared" si="1"/>
+      <c r="B31">
+        <f>B23</f>
         <v>7740</v>
       </c>
-      <c r="C28">
+      <c r="C31">
         <v>1185</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <f t="shared" si="0"/>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f>A24+0.1</f>
         <v>0.4</v>
       </c>
-      <c r="B29">
-        <f t="shared" si="1"/>
+      <c r="B32">
+        <f>B24</f>
         <v>7766</v>
       </c>
-      <c r="C29">
+      <c r="C32">
         <v>1245</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <f t="shared" si="0"/>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f>A25+0.1</f>
+        <v>0.4</v>
+      </c>
+      <c r="B33">
+        <f>B25</f>
+        <v>7810</v>
+      </c>
+      <c r="C33">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f>A26+0.1</f>
         <v>0.5</v>
       </c>
-      <c r="B30">
-        <f t="shared" si="1"/>
+      <c r="B34">
+        <f>B26</f>
         <v>7540</v>
       </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <f t="shared" si="0"/>
+      <c r="C34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f>A27+0.1</f>
         <v>0.5</v>
       </c>
-      <c r="B31">
-        <f t="shared" si="1"/>
+      <c r="B35">
+        <f>B27</f>
         <v>7580</v>
       </c>
-      <c r="C31">
+      <c r="C35">
         <v>815</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <f t="shared" si="0"/>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f>A28+0.1</f>
         <v>0.5</v>
       </c>
-      <c r="B32">
-        <f t="shared" si="1"/>
+      <c r="B36">
+        <f>B28</f>
         <v>7620</v>
       </c>
-      <c r="C32">
+      <c r="C36">
         <v>1000</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <f t="shared" si="0"/>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f>A29+0.1</f>
         <v>0.5</v>
       </c>
-      <c r="B33">
-        <f t="shared" si="1"/>
+      <c r="B37">
+        <f>B29</f>
         <v>7660</v>
       </c>
-      <c r="C33">
+      <c r="C37">
         <v>1165</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <f t="shared" si="0"/>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f>A30+0.1</f>
         <v>0.5</v>
       </c>
-      <c r="B34">
-        <f t="shared" si="1"/>
+      <c r="B38">
+        <f>B30</f>
         <v>7700</v>
       </c>
-      <c r="C34">
+      <c r="C38">
         <v>1300</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <f t="shared" si="0"/>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f>A31+0.1</f>
         <v>0.5</v>
       </c>
-      <c r="B35">
-        <f t="shared" si="1"/>
+      <c r="B39">
+        <f>B31</f>
         <v>7740</v>
       </c>
-      <c r="C35">
+      <c r="C39">
         <v>1415</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <f t="shared" si="0"/>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f>A32+0.1</f>
         <v>0.5</v>
       </c>
-      <c r="B36">
-        <f t="shared" si="1"/>
+      <c r="B40">
+        <f>B32</f>
         <v>7766</v>
       </c>
-      <c r="C36">
+      <c r="C40">
         <v>1500</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <f t="shared" si="0"/>
-        <v>0.6</v>
-      </c>
-      <c r="B37">
-        <f t="shared" si="1"/>
-        <v>7540</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <f t="shared" si="0"/>
-        <v>0.6</v>
-      </c>
-      <c r="B38">
-        <f t="shared" si="1"/>
-        <v>7580</v>
-      </c>
-      <c r="C38">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <f t="shared" si="0"/>
-        <v>0.6</v>
-      </c>
-      <c r="B39">
-        <f t="shared" si="1"/>
-        <v>7620</v>
-      </c>
-      <c r="C39">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <f t="shared" si="0"/>
-        <v>0.6</v>
-      </c>
-      <c r="B40">
-        <f t="shared" si="1"/>
-        <v>7660</v>
-      </c>
-      <c r="C40">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
-        <f t="shared" si="0"/>
-        <v>0.6</v>
+        <f>A33+0.1</f>
+        <v>0.5</v>
       </c>
       <c r="B41">
-        <f t="shared" si="1"/>
-        <v>7700</v>
+        <f>B33</f>
+        <v>7810</v>
       </c>
       <c r="C41">
         <v>1500</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
-        <f t="shared" si="0"/>
+        <f>A34+0.1</f>
         <v>0.6</v>
       </c>
       <c r="B42">
-        <f t="shared" si="1"/>
+        <f>B34</f>
+        <v>7540</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f>A35+0.1</f>
+        <v>0.6</v>
+      </c>
+      <c r="B43">
+        <f>B35</f>
+        <v>7580</v>
+      </c>
+      <c r="C43">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f>A36+0.1</f>
+        <v>0.6</v>
+      </c>
+      <c r="B44">
+        <f>B36</f>
+        <v>7620</v>
+      </c>
+      <c r="C44">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f>A37+0.1</f>
+        <v>0.6</v>
+      </c>
+      <c r="B45">
+        <f>B37</f>
+        <v>7660</v>
+      </c>
+      <c r="C45">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f>A38+0.1</f>
+        <v>0.6</v>
+      </c>
+      <c r="B46">
+        <f>B38</f>
+        <v>7700</v>
+      </c>
+      <c r="C46">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f>A39+0.1</f>
+        <v>0.6</v>
+      </c>
+      <c r="B47">
+        <f>B39</f>
         <v>7740</v>
       </c>
-      <c r="C42">
+      <c r="C47">
         <v>1645</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <f t="shared" si="0"/>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f>A40+0.1</f>
         <v>0.6</v>
       </c>
-      <c r="B43">
-        <f t="shared" si="1"/>
+      <c r="B48">
+        <f>B40</f>
         <v>7766</v>
       </c>
-      <c r="C43">
+      <c r="C48">
         <v>1730</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <f t="shared" si="0"/>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f>A41+0.1</f>
+        <v>0.6</v>
+      </c>
+      <c r="B49">
+        <f>B41</f>
+        <v>7810</v>
+      </c>
+      <c r="C49">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f>A42+0.1</f>
         <v>0.7</v>
       </c>
-      <c r="B44">
-        <f t="shared" si="1"/>
+      <c r="B50">
+        <f>B42</f>
         <v>7540</v>
       </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <f t="shared" si="0"/>
+      <c r="C50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f>A43+0.1</f>
         <v>0.7</v>
       </c>
-      <c r="B45">
-        <f t="shared" si="1"/>
+      <c r="B51">
+        <f>B43</f>
         <v>7580</v>
       </c>
-      <c r="C45">
+      <c r="C51">
         <v>1050</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <f t="shared" si="0"/>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f>A44+0.1</f>
         <v>0.7</v>
       </c>
-      <c r="B46">
-        <f t="shared" si="1"/>
+      <c r="B52">
+        <f>B44</f>
         <v>7620</v>
       </c>
-      <c r="C46">
+      <c r="C52">
         <v>1295</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <f t="shared" si="0"/>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f>A45+0.1</f>
         <v>0.7</v>
       </c>
-      <c r="B47">
-        <f t="shared" si="1"/>
+      <c r="B53">
+        <f>B45</f>
         <v>7660</v>
       </c>
-      <c r="C47">
+      <c r="C53">
         <v>1500</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <f t="shared" si="0"/>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <f>A46+0.1</f>
         <v>0.7</v>
       </c>
-      <c r="B48">
-        <f t="shared" si="1"/>
+      <c r="B54">
+        <f>B46</f>
         <v>7700</v>
       </c>
-      <c r="C48">
+      <c r="C54">
         <v>1680</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <f t="shared" si="0"/>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <f>A47+0.1</f>
         <v>0.7</v>
       </c>
-      <c r="B49">
-        <f t="shared" si="1"/>
+      <c r="B55">
+        <f>B47</f>
         <v>7740</v>
       </c>
-      <c r="C49">
+      <c r="C55">
         <v>1840</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <f t="shared" si="0"/>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <f>A48+0.1</f>
         <v>0.7</v>
       </c>
-      <c r="B50">
-        <f t="shared" si="1"/>
+      <c r="B56">
+        <f>B48</f>
         <v>7766</v>
       </c>
-      <c r="C50">
+      <c r="C56">
         <v>1945</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <f t="shared" si="0"/>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f>A49+0.1</f>
+        <v>0.7</v>
+      </c>
+      <c r="B57">
+        <f>B49</f>
+        <v>7810</v>
+      </c>
+      <c r="C57">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <f>A50+0.1</f>
         <v>0.79999999999999993</v>
       </c>
-      <c r="B51">
-        <f t="shared" si="1"/>
+      <c r="B58">
+        <f>B50</f>
         <v>7540</v>
       </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <f t="shared" si="0"/>
+      <c r="C58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f>A51+0.1</f>
         <v>0.79999999999999993</v>
       </c>
-      <c r="B52">
-        <f t="shared" si="1"/>
+      <c r="B59">
+        <f>B51</f>
         <v>7580</v>
       </c>
-      <c r="C52">
+      <c r="C59">
         <v>1155</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <f t="shared" si="0"/>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <f>A52+0.1</f>
         <v>0.79999999999999993</v>
       </c>
-      <c r="B53">
-        <f t="shared" si="1"/>
+      <c r="B60">
+        <f>B52</f>
         <v>7620</v>
       </c>
-      <c r="C53">
+      <c r="C60">
         <v>1425</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <f t="shared" si="0"/>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <f>A53+0.1</f>
         <v>0.79999999999999993</v>
       </c>
-      <c r="B54">
-        <f t="shared" si="1"/>
+      <c r="B61">
+        <f>B53</f>
         <v>7660</v>
       </c>
-      <c r="C54">
+      <c r="C61">
         <v>1650</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <f t="shared" si="0"/>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <f>A54+0.1</f>
         <v>0.79999999999999993</v>
       </c>
-      <c r="B55">
-        <f t="shared" si="1"/>
+      <c r="B62">
+        <f>B54</f>
         <v>7700</v>
       </c>
-      <c r="C55">
+      <c r="C62">
         <v>1845</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <f t="shared" si="0"/>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <f>A55+0.1</f>
         <v>0.79999999999999993</v>
       </c>
-      <c r="B56">
-        <f t="shared" si="1"/>
+      <c r="B63">
+        <f>B55</f>
         <v>7740</v>
       </c>
-      <c r="C56">
+      <c r="C63">
         <v>2080</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57">
-        <f t="shared" si="0"/>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <f>A56+0.1</f>
         <v>0.79999999999999993</v>
       </c>
-      <c r="B57">
-        <f t="shared" si="1"/>
+      <c r="B64">
+        <f>B56</f>
         <v>7766</v>
       </c>
-      <c r="C57">
+      <c r="C64">
         <v>2100</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58">
-        <f t="shared" si="0"/>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <f>A57+0.1</f>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="B65">
+        <f>B57</f>
+        <v>7810</v>
+      </c>
+      <c r="C65">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <f>A58+0.1</f>
         <v>0.89999999999999991</v>
       </c>
-      <c r="B58">
-        <f t="shared" si="1"/>
+      <c r="B66">
+        <f>B58</f>
         <v>7540</v>
       </c>
-      <c r="C58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59">
-        <f t="shared" si="0"/>
+      <c r="C66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <f>A59+0.1</f>
         <v>0.89999999999999991</v>
       </c>
-      <c r="B59">
-        <f t="shared" si="1"/>
+      <c r="B67">
+        <f>B59</f>
         <v>7580</v>
       </c>
-      <c r="C59">
+      <c r="C67">
         <v>1265</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60">
-        <f t="shared" si="0"/>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <f>A60+0.1</f>
         <v>0.89999999999999991</v>
       </c>
-      <c r="B60">
-        <f t="shared" si="1"/>
+      <c r="B68">
+        <f>B60</f>
         <v>7620</v>
       </c>
-      <c r="C60">
+      <c r="C68">
         <v>1560</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61">
-        <f t="shared" si="0"/>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <f>A61+0.1</f>
         <v>0.89999999999999991</v>
       </c>
-      <c r="B61">
-        <f t="shared" si="1"/>
+      <c r="B69">
+        <f>B61</f>
         <v>7660</v>
       </c>
-      <c r="C61">
+      <c r="C69">
         <v>1800</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62">
-        <f t="shared" si="0"/>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <f>A62+0.1</f>
         <v>0.89999999999999991</v>
       </c>
-      <c r="B62">
-        <f t="shared" si="1"/>
+      <c r="B70">
+        <f>B62</f>
         <v>7700</v>
       </c>
-      <c r="C62">
+      <c r="C70">
         <v>2020</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63">
-        <f t="shared" si="0"/>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <f>A63+0.1</f>
         <v>0.89999999999999991</v>
       </c>
-      <c r="B63">
-        <f t="shared" si="1"/>
+      <c r="B71">
+        <f>B63</f>
         <v>7740</v>
       </c>
-      <c r="C63">
+      <c r="C71">
         <v>2225</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64">
-        <f t="shared" si="0"/>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <f>A64+0.1</f>
         <v>0.89999999999999991</v>
       </c>
-      <c r="B64">
-        <f t="shared" si="1"/>
+      <c r="B72">
+        <f>B64</f>
         <v>7766</v>
       </c>
-      <c r="C64">
+      <c r="C72">
         <v>2350</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65">
-        <f t="shared" si="0"/>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <f>A65+0.1</f>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="B73">
+        <f>B65</f>
+        <v>7810</v>
+      </c>
+      <c r="C73">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <f>A66+0.1</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="B65">
-        <f t="shared" si="1"/>
+      <c r="B74">
+        <f>B66</f>
         <v>7540</v>
       </c>
-      <c r="C65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66">
-        <f t="shared" si="0"/>
+      <c r="C74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <f>A67+0.1</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="B66">
-        <f t="shared" si="1"/>
+      <c r="B75">
+        <f>B67</f>
         <v>7580</v>
       </c>
-      <c r="C66">
+      <c r="C75">
         <v>1360</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67">
-        <f t="shared" si="0"/>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <f>A68+0.1</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="B67">
-        <f t="shared" si="1"/>
+      <c r="B76">
+        <f>B68</f>
         <v>7620</v>
       </c>
-      <c r="C67">
+      <c r="C76">
         <v>1675</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68">
-        <f t="shared" si="0"/>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <f>A69+0.1</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="B68">
-        <f t="shared" si="1"/>
+      <c r="B77">
+        <f>B69</f>
         <v>7660</v>
       </c>
-      <c r="C68">
+      <c r="C77">
         <v>1950</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69">
-        <f t="shared" si="0"/>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <f>A70+0.1</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="B69">
-        <f t="shared" si="1"/>
+      <c r="B78">
+        <f>B70</f>
         <v>7700</v>
       </c>
-      <c r="C69">
+      <c r="C78">
         <v>2190</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70">
-        <f t="shared" si="0"/>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <f>A71+0.1</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="B70">
-        <f t="shared" si="1"/>
+      <c r="B79">
+        <f>B71</f>
         <v>7740</v>
       </c>
-      <c r="C70">
+      <c r="C79">
         <v>2395</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71">
-        <f t="shared" si="0"/>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <f>A72+0.1</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="B71">
-        <f t="shared" si="1"/>
+      <c r="B80">
+        <f>B72</f>
         <v>7766</v>
       </c>
-      <c r="C71">
+      <c r="C80">
+        <v>2525</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <f>A73+0.1</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="B81">
+        <f>B73</f>
+        <v>7810</v>
+      </c>
+      <c r="C81">
         <v>2525</v>
       </c>
     </row>
@@ -16433,12 +16559,12 @@
       <selection activeCell="B15" sqref="B15:C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>16</v>
       </c>
@@ -16455,7 +16581,7 @@
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
     </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>15</v>
       </c>
@@ -16490,7 +16616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>7553</v>
       </c>
@@ -16525,7 +16651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>7570</v>
       </c>
@@ -16560,7 +16686,7 @@
         <v>43.5</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>7610</v>
       </c>
@@ -16595,7 +16721,7 @@
         <v>53.5</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>7650</v>
       </c>
@@ -16630,7 +16756,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>7690</v>
       </c>
@@ -16665,7 +16791,7 @@
         <v>69.5</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>7730</v>
       </c>
@@ -16700,7 +16826,7 @@
         <v>76.5</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>7750</v>
       </c>
@@ -16735,7 +16861,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>7766</v>
       </c>
@@ -16770,7 +16896,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>7553</v>
       </c>
@@ -16778,7 +16904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>7570</v>
       </c>
@@ -16786,7 +16912,7 @@
         <v>43.5</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>7610</v>
       </c>
@@ -16794,7 +16920,7 @@
         <v>53.5</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>7650</v>
       </c>
@@ -16802,7 +16928,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>7690</v>
       </c>
@@ -16810,7 +16936,7 @@
         <v>69.5</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>7730</v>
       </c>
@@ -16818,7 +16944,7 @@
         <v>76.5</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>7750</v>
       </c>
@@ -16826,7 +16952,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>7766</v>
       </c>
@@ -16851,12 +16977,12 @@
       <selection activeCell="B2" sqref="B2:L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>17</v>
       </c>
@@ -16873,7 +16999,7 @@
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
     </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>15</v>
       </c>
@@ -16908,7 +17034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>7540</v>
       </c>
@@ -16943,7 +17069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>7580</v>
       </c>
@@ -16978,7 +17104,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>7620</v>
       </c>
@@ -17013,7 +17139,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>7660</v>
       </c>
@@ -17048,7 +17174,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>7700</v>
       </c>
@@ -17083,7 +17209,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>7740</v>
       </c>
@@ -17118,7 +17244,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>7766</v>
       </c>
